--- a/experiments/experiment_1/notebooks/tabela_grafo.xlsx
+++ b/experiments/experiment_1/notebooks/tabela_grafo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="361">
   <si>
     <t>S</t>
   </si>
@@ -460,7 +460,7 @@
     <t>basili1984a, basili1989a, basili1994a, becker1999a, bianchi2001a, buglione2000a, card2003b, chrissis2003a, cobit2007a, kaplan1992a, offen1997a, ogc2002a, usddusa2003a, weiss1998a, basili1994b</t>
   </si>
   <si>
-    <t>mandić2010b, accenture2004a, sw1998a, ai1994a, basili1981a, basili1985a, basili1989a, basili1993a, basili1995b, basili1994e, basili1988c, basili1984b, basili1994f, basili1994a, basili1995a, basili1996a, basili2010a, beck2004a, becker1999a, boehm2003b, briand1996a, brindgeland2008a, budd2009a, buglione2000a, burlton2010a, chillarege1992a, ciolkowski2002a, cmmi2010a, conradi2002a, damiani2008a, deming1986b, eckerson2005a, epstein1998a, fagan1976b, gamma1994a, gartner2010a, gartner2011a, gresse1995a, hammer1990b, hammer2010a, hammer1993a, humphrey2005a, isoiec2009a, kaplan1992a, kaplan1996a, kaplan2004b, kaplan2008b, kerth2001a, laitenberger2002a, (2012, Mandić, Vladimir), mandić2010a, mandić2010g, mandić2010b, nch2004a, unch2012a, neely1995a, nudurupati2011a, offen1997a, ogc2009a, omg2010a, pmi2013a, porter1996a, porter2008a, rombach1995a, rosemann2010a, sarcia2010a, schwaber2004a, selby2005a, shewhart1939a, trendowicz2011a, solingen1999b</t>
+    <t>mandić2010b, accenture2004a, sw1998a, ai1994a, basili1981a, basili1985a, basili1989a, basili1993a, basili1995b, basili1994e, basili1988c, basili1984b, basili1994f, basili1994a, basili1995a, basili1996a, basili2010a, beck2004a, becker1999a, boehm2003b, briand1996a, brindgeland2008a, budd2009a, buglione2000a, burlton2010a, chillarege1992a, ciolkowski2002a, cmmi2010a, conradi2002a, damiani2008a, deming1986b, eckerson2005a, epstein1998a, fagan1976b, gamma1994a, gartner2010a, gartner2011a, gresse1995a, hammer1990b, hammer2010a, hammer1993a, humphrey2005a, isoiec2009a, kaplan1992a, kaplan1996a, kaplan2004b, kaplan2008b, kerth2001a, laitenberger2002a, mandic2012a, mandić2010a, mandić2010g, mandić2010b, nch2004a, unch2012a, neely1995a, nudurupati2011a, offen1997a, ogc2009a, omg2010a, pmi2013a, porter1996a, porter2008a, rombach1995a, rosemann2010a, sarcia2010a, schwaber2004a, selby2005a, shewhart1939a, trendowicz2011a, solingen1999b</t>
   </si>
   <si>
     <t>mandić2010b, pfeffer1998a, staron2011a, basili2010a, basili1994a, basili1994b, mandić2010b, lyne2003a, peppard2001a, rautiainen1999a, krishnan2001a, curtis1988a, dagnino2001a, jaufman2004a, karlström2005b, genus2006a, dove2005a, patanakul2010a, turner2007a, allee2008a, mcgrath2004a, sicotte2000a, lainhart2000a, mcgarry2002a, kaplan1992a, pan2007a, olsina2011b, papa2012a, mandić2010c, kowalczyk2010a, edmondson2007a, gummesson1991a</t>
@@ -586,7 +586,7 @@
     <t>lepmets2012a, becker2012a, pryor2011a, vasconcellos2017a, dadhich2012a, barreto2011a, cyrus2011a, lópez2012a, ramos2015a, sanchez2017a, mitre2014a, hamouda2013a, sanchez2018a, haghighatfar2013a, valenciennes2013a, aguirre2014a, mitrehernández2014a, salgado2015a, robles2016a</t>
   </si>
   <si>
-    <t>buse2012a, wallace2014a, paternoster2014a, novais2013a, lew2012a, giardino2014a, kim2016a, trendowicz2013a, guzmán2010a, papa2012a, sarcia2010a, bird2015a, becker2012a, basili2013a, becker2015a, becker2011b, olsina2011a, lew2011a, gencel2013a, mandić2010c, cedergren2011a, kläs2015a, olsina2014a, ferreira2013a, münch2012a, kobori2014b, monden2012a, olsina2011b, rivera2016a, kläs2013a, kobori2014a, liggesmeyer2014a, rivera2016b, giannoulis2013a, tahir2016a, álvarez2015a, heidrich2014a, murphy2015a, eremenko2012a, cedergren2014a, aoki2016a, jedlitschka2013a, mandić2010f, jahn2014a, lescher2011a, kobori2016a, zhang2014a, oberscheven2013a, lavazza2011a, giannoulis2014a, djouab2016a, hernández2010a, hästbacka2013a, leschera2012a, guinea2013a, lópez2016b, janes2014a, osadchyy2013a, khalifa2016a, lópez2016a, ahmad2016a, papa2016a, kettunen2014a, mandić2017a, ebner2014a, lavazza2013a, heidrich2013a, koumaditis2015a, marca2010a, sanchez2017a, poligadu2014a, koumaditis2016a, jaramillo2016a, rivera2015a, heidrich2012a, doerr2013a, novais2018a, asghari2012a, olsina2017a, lavazza2015a, washizaki2017a, pérez2017a, becker2014a, papa2012b, papa2015a, rivera2015b, rivera2016c, becker2017a, basili2014a, yamamoto2016a, falessi2014a, diep2016a, mitre2014a, machado2012a, abdulameer2015a, (2012, Mandić, Vladimir), rombach2014a, port2016a, santos2017a, olsina2013a, armstrong2016a, cedergren2011b, anders9999a, sanchez2018a, machado2016a, heidrich9999a, zapata2017a, mughal2017a, lavazza2015b, nicho2017a, mitrehernández2014a, olsina2012b, jørgensen2014a, hästbacka2013b, trendowicz2014b, hyvönen2015a, rombach2012a, eremenko2013a, erukulapati2017a, jeners2015a, rensburg2012a, boehm2014a, pinheiro2017a, mandić2012b, ferreira2014a, tebes2017a, xu2015a, trendowicz9999a, lang2014a, lang2017a, papa9999a, lang2017b, huberts9999a, mendoza2013a, robles2016a, cocozza2014a, mandić2010a, mandić2010b, mandić2010d, münch2013a, münch2013c, petersen2015a, trendowicz2011a, trendowicz2014a, unterkalmsteiner2014a</t>
+    <t>buse2012a, wallace2014a, paternoster2014a, novais2013a, lew2012a, giardino2014a, kim2016a, trendowicz2013a, guzmán2010a, papa2012a, sarcia2010a, bird2015a, becker2012a, basili2013a, becker2015a, becker2011b, olsina2011a, lew2011a, gencel2013a, mandić2010c, cedergren2011a, kläs2015a, olsina2014a, ferreira2013a, münch2012a, kobori2014b, monden2012a, olsina2011b, rivera2016a, kläs2013a, kobori2014a, liggesmeyer2014a, rivera2016b, giannoulis2013a, tahir2016a, álvarez2015a, heidrich2014a, murphy2015a, eremenko2012a, cedergren2014a, aoki2016a, jedlitschka2013a, mandić2010f, jahn2014a, lescher2011a, kobori2016a, zhang2014a, oberscheven2013a, lavazza2011a, giannoulis2014a, djouab2016a, hernández2010a, hästbacka2013a, leschera2012a, guinea2013a, lópez2016b, janes2014a, osadchyy2013a, khalifa2016a, lópez2016a, ahmad2016a, papa2016a, kettunen2014a, mandić2017a, ebner2014a, lavazza2013a, heidrich2013a, koumaditis2015a, marca2010a, sanchez2017a, poligadu2014a, koumaditis2016a, jaramillo2016a, rivera2015a, heidrich2012a, doerr2013a, novais2018a, asghari2012a, olsina2017a, lavazza2015a, washizaki2017a, pérez2017a, becker2014a, papa2012b, papa2015a, rivera2015b, rivera2016c, becker2017a, basili2014a, yamamoto2016a, falessi2014a, diep2016a, mitre2014a, machado2012a, abdulameer2015a, mandic2012a, rombach2014a, port2016a, santos2017a, olsina2013a, armstrong2016a, cedergren2011b, anders9999a, sanchez2018a, machado2016a, heidrich9999a, zapata2017a, mughal2017a, lavazza2015b, nicho2017a, mitrehernández2014a, olsina2012b, jørgensen2014a, hästbacka2013b, trendowicz2014b, hyvönen2015a, rombach2012a, eremenko2013a, erukulapati2017a, jeners2015a, rensburg2012a, boehm2014a, pinheiro2017a, mandić2012b, ferreira2014a, tebes2017a, xu2015a, trendowicz9999a, lang2014a, lang2017a, papa9999a, lang2017b, huberts9999a, mendoza2013a, robles2016a, cocozza2014a, mandić2010a, mandić2010b, mandić2010d, münch2013a, münch2013c, petersen2015a, trendowicz2011a, trendowicz2014a, unterkalmsteiner2014a</t>
   </si>
   <si>
     <t>karlström2002a, marcus2005a, kandé2000a, sawyer2002a, liu2008a, katz2004a, ghose2007a, gans2003a, karlström2005a, ghose2007b, kabbaj2008a, egorova2009a, marcelloni2001a, easterbrook2001a, yang2007a, zhang2009a, acharya2005a, nguyen2003a, taipale2007a, rayson1999a, rayson2000a, katz2004b, rayson1999b, bent2006a, kim2014a, rayson1999c, soares2012a, zhang2010a, nguyen2004a, müller2012a, eljabiri2012a, michel2009a, aysolmaz2011a, eljabiri2001a, berkovich2012a, nunn2016a, morisio2009a, aida2003a, charrel2007a, jun2007a, jurczuk2017b, jesko9999a, solaimani2017a, jurczuk2017a, karlström2002b, lui2008a, nair2009a, francalanci2016a, ghose9999a, solaimani2014a, zhiping2011a, alves2002a, vázquez2001a, vazquez2000a, apfelbacher2007a</t>
@@ -667,7 +667,7 @@
     <t>becker2008a, becker2008b</t>
   </si>
   <si>
-    <t>basili2009a, damiani2008a, aversano2016a, mandić2010c, ellis2012a, mulazzani2009a, samtani2012a, kelanti2013a, álvarez2015a, samtani2012b, quintero2012a, aoki2016a, mandić2010f, ellis2013a, heidrich2009a, hyysalo2014a, münch2012b, kobori2016a, münch2012c, ellis2013b, texel2015a, molina2012a, münch2009a, ahmad2016a, texel2013a, mandić2017a, mulazzani2009b, aoki2017a, roditi2014a, asghari2012a, pérez2017a, becker2014a, papa2015a, aarts2016a, cahyaningsih2014a, jayatilleke2017a, (2012, Mandić, Vladimir), lindqvist2016a, mughal2017a, kramer2014a, mulazzani2009c, monden2017a, nagel2015a, casare2012a, cervantes2016a, cervantes2012a, santo2015a, aarts2016a, chaos9999a, pinto9999a, basili2010a, cocozza2014a, mandić2010b, mandić2010d, petersen2015a</t>
+    <t>basili2009a, damiani2008a, aversano2016a, mandić2010c, ellis2012a, mulazzani2009a, samtani2012a, kelanti2013a, álvarez2015a, samtani2012b, quintero2012a, aoki2016a, mandić2010f, ellis2013a, heidrich2009a, hyysalo2014a, münch2012b, kobori2016a, münch2012c, ellis2013b, texel2015a, molina2012a, münch2009a, ahmad2016a, texel2013a, mandić2017a, mulazzani2009b, aoki2017a, roditi2014a, asghari2012a, pérez2017a, becker2014a, papa2015a, aarts2016a, cahyaningsih2014a, jayatilleke2017a, mandic2012a, lindqvist2016a, mughal2017a, kramer2014a, mulazzani2009c, monden2017a, nagel2015a, casare2012a, cervantes2016a, cervantes2012a, santo2015a, aarts2016a, chaos9999a, pinto9999a, basili2010a, cocozza2014a, mandić2010b, mandić2010d, petersen2015a</t>
   </si>
   <si>
     <t>oliveira2018a</t>
@@ -679,7 +679,7 @@
     <t>lópez2016a, mandić2017a, hooge2016a, trinkenreich2017b, chagas2016a, petersen2015a</t>
   </si>
   <si>
-    <t>barreto2010a, münch2013e, amannejad2014a, sarcia2010a, harjumaa2008a, damiani2008a, ramler2010a, mandić2010c, caputo2010a, umarji2009b, kowalczyk2014a, danovaro2008a, fabijan2016a, cedergren2014a, yang2010a, przybylek2011a, uchida2016a, mandić2010f, buglione2011a, garousi2012a, barreto2009a, bennicke2008a, kowalczyk2013a, thammarak2011a, hernández2010a, guinea2013a, janes2014a, münch2009a, mandić2010e, mandić2017a, heidrich2012a, teles2014a, armbrust2007a, júnior2010a, mitre2014a, tsunoda2011a, (2012, Mandić, Vladimir), marcos2017a, watanabe2017a, janes2014b, machado2016a, ferreira2018a, thammarak2013a, mitrehernández2014a, moraes2017a, katopodis2015a, debruyn2014a, ferreira2014a, cansado2012a, bóka2009a, trinkenreich2015b, montebelo2008a, pimentel2016a, pinho2010a, dashkov2017a, rocha2009a, papazov9999a, cansado9999a, voigt9999a, marcos2017b, trinkenreich2015b, pimentel2016a, pinto9999a, rivera9999a, rocha2009a, kaneko2011a, kowalczyk2010a, mandić2010b, unterkalmsteiner2014a</t>
+    <t>barreto2010a, münch2013e, amannejad2014a, sarcia2010a, harjumaa2008a, damiani2008a, ramler2010a, mandić2010c, caputo2010a, umarji2009b, kowalczyk2014a, danovaro2008a, fabijan2016a, cedergren2014a, yang2010a, przybylek2011a, uchida2016a, mandić2010f, buglione2011a, garousi2012a, barreto2009a, bennicke2008a, kowalczyk2013a, thammarak2011a, hernández2010a, guinea2013a, janes2014a, münch2009a, mandić2010e, mandić2017a, heidrich2012a, teles2014a, armbrust2007a, júnior2010a, mitre2014a, tsunoda2011a, mandic2012a, marcos2017a, watanabe2017a, janes2014b, machado2016a, ferreira2018a, thammarak2013a, mitrehernández2014a, moraes2017a, katopodis2015a, debruyn2014a, ferreira2014a, cansado2012a, bóka2009a, trinkenreich2015b, montebelo2008a, pimentel2016a, pinho2010a, dashkov2017a, rocha2009a, papazov9999a, cansado9999a, voigt9999a, marcos2017b, trinkenreich2015b, pimentel2016a, pinto9999a, rivera9999a, rocha2009a, kaneko2011a, kowalczyk2010a, mandić2010b, unterkalmsteiner2014a</t>
   </si>
   <si>
     <t>petersen2015a, basili2014b, monden2012a, kobori2014a, shimura2017a, alves2014a, ellis2013a, kobori2016a, lópez2016a, mandić2017a, jaramillo2016a, heidrich2012a, asghari2012a, zapata2017a, brehm2014a, trendowicz2014a</t>
@@ -703,7 +703,7 @@
     <t>kwak2006a, aboelmaged2010a, unterkalmsteiner2012a, subramanian2007a, nonthaleerak2006a, wu2006a, tjahjono2010a, tang2007a, mahanti2005a, anbari2004a, siviy2007a, mahanti2009a, kundu2012a, wang2005b, mahanti2006a, jiang2011a, knowles2011a, brady2005a, garcia2009a, antoniol2004a, kundu2012b, patel2009a, li2008a, patyal2015a, bahli2004a, zhang2008c, landaeta2008a, asato2011a, bubevski2014a, müller2012a, besseris2010a, kundu2016a, cheng2009a, wandersman2012a, rico2010a, el2011a, barcellos2008b, el2013a, unterkalmsteiner2010a, wang2005c, chen2007b, deng2015a, daubner2008a, rico9999a, choi2006a, khan2016a, dalipi2012a, nyambegera2014a, islam2009a, strate2013a, el2010b, zhang9999a, tong2009a, paruchuri2009a, manohar9999a, manohar9999a, sharma2012a, tse2005a, bubevski2016a, u2018a, chen2007c, al2018a, sharma2017a, simmons2010a, mahanti2014a, cerdeiral2017a, quintella2017a, barcellos9999a, mayoral2012a, andrade9999a, sun2012a, tonini2006a, quintella9999a, caivano9999a, horizonte2017a, unterkalmsteiner2014a, wang2005a</t>
   </si>
   <si>
-    <t>fagerholm2014a, mandić2010b, fagerholm2017a, lindgren2015a, heidrich2008a, papa2012a, lindgren2016a, mandić2010d, olsina2011b, luo2016a, kowalczyk2014a, dumke2009a, mandić2010f, ta2015a, münch2012b, kelemen2014a, dumke2014a, dumke2013a, münch2009a, valle2017a, papa2016a, heidrich2010a, luo2015a, roditi2014a, ciolkowski2008a, becker2014a, papa2012b, papa2015a, (2012, Mandić, Vladimir), cuadrado2010a, sadabadi2016a, sakul2017a, lindgren2015b, kowalczyk2010a, münch2013a</t>
+    <t>fagerholm2014a, mandić2010b, fagerholm2017a, lindgren2015a, heidrich2008a, papa2012a, lindgren2016a, mandić2010d, olsina2011b, luo2016a, kowalczyk2014a, dumke2009a, mandić2010f, ta2015a, münch2012b, kelemen2014a, dumke2014a, dumke2013a, münch2009a, valle2017a, papa2016a, heidrich2010a, luo2015a, roditi2014a, ciolkowski2008a, becker2014a, papa2012b, papa2015a, mandic2012a, cuadrado2010a, sadabadi2016a, sakul2017a, lindgren2015b, kowalczyk2010a, münch2013a</t>
   </si>
   <si>
     <t>selected forward list</t>
@@ -1097,15 +1097,6 @@
   </si>
   <si>
     <t>Step 8</t>
-  </si>
-  <si>
-    <t>becker2008a, trienekens2009a</t>
-  </si>
-  <si>
-    <t>becker2008a, trienekens2009a, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, birkhölzer2011a</t>
   </si>
 </sst>
 </file>
@@ -1630,9 +1621,6 @@
       <c r="L3" t="s">
         <v>182</v>
       </c>
-      <c r="U3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
@@ -1668,9 +1656,6 @@
       <c r="L4" t="s">
         <v>183</v>
       </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
@@ -1731,7 +1716,7 @@
         <v>357</v>
       </c>
       <c r="U5" t="s">
-        <v>361</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1789,9 +1774,6 @@
       <c r="S6" t="s">
         <v>350</v>
       </c>
-      <c r="U6" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
@@ -1848,9 +1830,6 @@
       <c r="R7" t="s">
         <v>347</v>
       </c>
-      <c r="U7" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
@@ -1904,9 +1883,6 @@
       <c r="R8" t="s">
         <v>348</v>
       </c>
-      <c r="U8" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
@@ -1967,7 +1943,7 @@
         <v>338</v>
       </c>
       <c r="U9" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2028,9 +2004,6 @@
       <c r="T10" t="s">
         <v>350</v>
       </c>
-      <c r="U10" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1">
@@ -2090,9 +2063,6 @@
       <c r="S11" t="s">
         <v>350</v>
       </c>
-      <c r="U11" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1">
@@ -2134,9 +2104,6 @@
       <c r="N12" t="s">
         <v>79</v>
       </c>
-      <c r="U12" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1">
@@ -2196,9 +2163,6 @@
       <c r="T13" t="s">
         <v>350</v>
       </c>
-      <c r="U13" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1">
@@ -2243,9 +2207,6 @@
       <c r="O14" t="s">
         <v>66</v>
       </c>
-      <c r="U14" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1">
@@ -2287,9 +2248,6 @@
       <c r="N15" t="s">
         <v>80</v>
       </c>
-      <c r="U15" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1">
@@ -2334,11 +2292,8 @@
       <c r="O16" t="s">
         <v>64</v>
       </c>
-      <c r="U16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2378,11 +2333,8 @@
       <c r="N17" t="s">
         <v>81</v>
       </c>
-      <c r="U17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2440,11 +2392,8 @@
       <c r="S18" t="s">
         <v>350</v>
       </c>
-      <c r="U18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2502,11 +2451,8 @@
       <c r="T19" t="s">
         <v>99</v>
       </c>
-      <c r="U19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2540,11 +2486,8 @@
       <c r="L20" t="s">
         <v>199</v>
       </c>
-      <c r="U20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2602,11 +2545,8 @@
       <c r="S21" t="s">
         <v>59</v>
       </c>
-      <c r="U21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2646,11 +2586,8 @@
       <c r="N22" t="s">
         <v>85</v>
       </c>
-      <c r="U22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2684,11 +2621,8 @@
       <c r="L23" t="s">
         <v>202</v>
       </c>
-      <c r="U23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2743,11 +2677,8 @@
       <c r="R24" t="s">
         <v>347</v>
       </c>
-      <c r="U24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2802,11 +2733,8 @@
       <c r="T25" t="s">
         <v>59</v>
       </c>
-      <c r="U25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2867,11 +2795,8 @@
       <c r="T26" t="s">
         <v>350</v>
       </c>
-      <c r="U26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2926,11 +2851,8 @@
       <c r="S27" t="s">
         <v>350</v>
       </c>
-      <c r="U27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2982,11 +2904,8 @@
       <c r="R28" t="s">
         <v>350</v>
       </c>
-      <c r="U28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3026,11 +2945,8 @@
       <c r="N29" t="s">
         <v>62</v>
       </c>
-      <c r="U29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3067,11 +2983,8 @@
       <c r="N30" t="s">
         <v>65</v>
       </c>
-      <c r="U30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3111,11 +3024,8 @@
       <c r="N31" t="s">
         <v>67</v>
       </c>
-      <c r="U31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3173,11 +3083,8 @@
       <c r="T32" t="s">
         <v>59</v>
       </c>
-      <c r="U32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3238,11 +3145,8 @@
       <c r="T33" t="s">
         <v>59</v>
       </c>
-      <c r="U33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3297,11 +3201,8 @@
       <c r="S34" t="s">
         <v>99</v>
       </c>
-      <c r="U34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3341,11 +3242,8 @@
       <c r="N35" t="s">
         <v>72</v>
       </c>
-      <c r="U35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3400,11 +3298,8 @@
       <c r="R36" t="s">
         <v>353</v>
       </c>
-      <c r="U36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3459,11 +3354,8 @@
       <c r="S37" t="s">
         <v>353</v>
       </c>
-      <c r="U37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3521,11 +3413,8 @@
       <c r="T38" t="s">
         <v>59</v>
       </c>
-      <c r="U38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3583,11 +3472,8 @@
       <c r="T39" t="s">
         <v>59</v>
       </c>
-      <c r="U39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3642,11 +3528,8 @@
       <c r="S40" t="s">
         <v>350</v>
       </c>
-      <c r="U40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3701,11 +3584,8 @@
       <c r="S41" t="s">
         <v>350</v>
       </c>
-      <c r="U41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3763,11 +3643,8 @@
       <c r="S42" t="s">
         <v>350</v>
       </c>
-      <c r="U42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3828,11 +3705,8 @@
       <c r="T43" t="s">
         <v>350</v>
       </c>
-      <c r="U43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3881,11 +3755,8 @@
       <c r="Q44" t="s">
         <v>343</v>
       </c>
-      <c r="U44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3946,11 +3817,8 @@
       <c r="T45" t="s">
         <v>350</v>
       </c>
-      <c r="U45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3990,11 +3858,8 @@
       <c r="N46" t="s">
         <v>268</v>
       </c>
-      <c r="U46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4049,11 +3914,8 @@
       <c r="T47" t="s">
         <v>59</v>
       </c>
-      <c r="U47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4107,9 +3969,6 @@
       </c>
       <c r="S48" t="s">
         <v>358</v>
-      </c>
-      <c r="U48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4171,7 +4030,7 @@
         <v>349</v>
       </c>
       <c r="U49" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4232,9 +4091,6 @@
       <c r="T50" t="s">
         <v>99</v>
       </c>
-      <c r="U50" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1">
@@ -4291,9 +4147,6 @@
       <c r="R51" t="s">
         <v>347</v>
       </c>
-      <c r="U51" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1">
@@ -4350,9 +4203,6 @@
       <c r="S52" t="s">
         <v>350</v>
       </c>
-      <c r="U52" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1">
@@ -4408,9 +4258,6 @@
       </c>
       <c r="S53" t="s">
         <v>347</v>
-      </c>
-      <c r="U53" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/experiment_1/notebooks/tabela_grafo.xlsx
+++ b/experiments/experiment_1/notebooks/tabela_grafo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="365">
   <si>
     <t>S</t>
   </si>
@@ -175,159 +175,159 @@
     <t>varname</t>
   </si>
   <si>
+    <t>hinley1995a</t>
+  </si>
+  <si>
+    <t>reiblein1997a</t>
+  </si>
+  <si>
+    <t>mccoy1998a</t>
+  </si>
+  <si>
+    <t>messnarz1999a</t>
+  </si>
+  <si>
+    <t>sommerville1999a</t>
+  </si>
+  <si>
+    <t>kautz2000a</t>
+  </si>
+  <si>
+    <t>debou2000a</t>
+  </si>
+  <si>
     <t>waina2001a</t>
   </si>
   <si>
+    <t>karlström2002a</t>
+  </si>
+  <si>
+    <t>murugappan2003a</t>
+  </si>
+  <si>
+    <t>trienekens2004a</t>
+  </si>
+  <si>
+    <t>trienekens2005a</t>
+  </si>
+  <si>
+    <t>wang2005a</t>
+  </si>
+  <si>
+    <t>liu2005a</t>
+  </si>
+  <si>
+    <t>liu2006a</t>
+  </si>
+  <si>
     <t>wilkie2007a</t>
   </si>
   <si>
+    <t>basili2007a</t>
+  </si>
+  <si>
+    <t>basili2007c</t>
+  </si>
+  <si>
+    <t>basili2007b</t>
+  </si>
+  <si>
+    <t>martins2007b</t>
+  </si>
+  <si>
     <t>becker2008a</t>
   </si>
   <si>
+    <t>martins2008a</t>
+  </si>
+  <si>
+    <t>becker2008b</t>
+  </si>
+  <si>
+    <t>trienekens2009a</t>
+  </si>
+  <si>
+    <t>albuquerque2009a</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a</t>
+  </si>
+  <si>
+    <t>sun2010a</t>
+  </si>
+  <si>
+    <t>barreto2010a</t>
+  </si>
+  <si>
+    <t>armbrust2010a</t>
+  </si>
+  <si>
+    <t>guzmán2010a</t>
+  </si>
+  <si>
+    <t>basili2010a</t>
+  </si>
+  <si>
+    <t>mandić2010d</t>
+  </si>
+  <si>
+    <t>mcloughlin2010a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010b</t>
+  </si>
+  <si>
+    <t>mandić2010a</t>
+  </si>
+  <si>
+    <t>mandić2010b</t>
+  </si>
+  <si>
+    <t>armbrust2010b</t>
+  </si>
+  <si>
+    <t>trendowicz2011a</t>
+  </si>
+  <si>
+    <t>kaneko2011a</t>
+  </si>
+  <si>
+    <t>birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>plösch2011a</t>
+  </si>
+  <si>
+    <t>esfahani2011a</t>
+  </si>
+  <si>
+    <t>stallinger2013a</t>
+  </si>
+  <si>
+    <t>münch2013c</t>
+  </si>
+  <si>
+    <t>münch2013a</t>
+  </si>
+  <si>
+    <t>trendowicz2014a</t>
+  </si>
+  <si>
+    <t>cocozza2014a</t>
+  </si>
+  <si>
+    <t>unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>lepmets2014a</t>
+  </si>
+  <si>
     <t>petersen2015a</t>
   </si>
   <si>
-    <t>kaneko2011a</t>
-  </si>
-  <si>
-    <t>barreto2010a</t>
-  </si>
-  <si>
-    <t>trienekens2009a</t>
-  </si>
-  <si>
-    <t>guzmán2010a</t>
-  </si>
-  <si>
-    <t>basili2010a</t>
-  </si>
-  <si>
-    <t>sommerville1999a</t>
-  </si>
-  <si>
-    <t>wang2005a</t>
-  </si>
-  <si>
-    <t>martins2008a</t>
-  </si>
-  <si>
-    <t>plösch2011a</t>
-  </si>
-  <si>
-    <t>albuquerque2009a</t>
-  </si>
-  <si>
-    <t>reiblein1997a</t>
-  </si>
-  <si>
-    <t>mandić2010a</t>
-  </si>
-  <si>
-    <t>trienekens2005a</t>
-  </si>
-  <si>
-    <t>esfahani2011a</t>
-  </si>
-  <si>
-    <t>becker2008b</t>
-  </si>
-  <si>
     <t>oConnor2015a</t>
   </si>
   <si>
-    <t>kautz2000a</t>
-  </si>
-  <si>
-    <t>mandić2010b</t>
-  </si>
-  <si>
-    <t>messnarz1999a</t>
-  </si>
-  <si>
-    <t>mandić2010d</t>
-  </si>
-  <si>
-    <t>cocozza2014a</t>
-  </si>
-  <si>
-    <t>unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>karlström2002a</t>
-  </si>
-  <si>
-    <t>stallinger2013a</t>
-  </si>
-  <si>
-    <t>hinley1995a</t>
-  </si>
-  <si>
-    <t>sun2010a</t>
-  </si>
-  <si>
-    <t>armbrust2010a</t>
-  </si>
-  <si>
-    <t>debou2000a</t>
-  </si>
-  <si>
-    <t>lepmets2014a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010b</t>
-  </si>
-  <si>
-    <t>liu2005a</t>
-  </si>
-  <si>
-    <t>mccoy1998a</t>
-  </si>
-  <si>
-    <t>basili2007a</t>
-  </si>
-  <si>
-    <t>trendowicz2014a</t>
-  </si>
-  <si>
-    <t>münch2013c</t>
-  </si>
-  <si>
-    <t>münch2013a</t>
-  </si>
-  <si>
-    <t>basili2007b</t>
-  </si>
-  <si>
-    <t>trendowicz2011a</t>
-  </si>
-  <si>
-    <t>martins2007b</t>
-  </si>
-  <si>
-    <t>armbrust2010b</t>
-  </si>
-  <si>
-    <t>liu2006a</t>
-  </si>
-  <si>
-    <t>birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>trienekens2004a</t>
-  </si>
-  <si>
-    <t>kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>murugappan2003a</t>
-  </si>
-  <si>
-    <t>basili2007c</t>
-  </si>
-  <si>
     <t>visits</t>
   </si>
   <si>
@@ -349,754 +349,766 @@
     <t>backward list</t>
   </si>
   <si>
+    <t>koch1992a, kellner1991a, lientz1980a, rands1992a, tully1989a, humphrey1991b, drew1993a, hinley1993a, shepperd1990a, kellner1989a, hinley1992a, humphrey1989c, hinley1993b, basili1984b, rombach1987a, gilb1988a</t>
+  </si>
+  <si>
+    <t>hinley1995a, itil1989a, miller1995a, hinley1997a, kaplan1993a, kaplan1996b, deming1986a, vlasveld1995a, iso1994a, trade1992a, humphrey1989a, isoies1997a, iso1994b, group1997a, cmm1993a</t>
+  </si>
+  <si>
+    <t>dod1996a, blackerby1993a, madni1998a, dynsys1998a, kapp1998a</t>
+  </si>
+  <si>
+    <t>finkelstein1994a, fuggetta1996a, hammer1990a, humphrey1988a, paulk1993c, haase1994a, emam1997a, sommerville1997a, emmet1996a, sommerville1997b, sommerville1998a, osterweil1987a, fernstro1993a, sutton1997a, paulk1995a, sommerville1996a, cugola1996a, conradi1995a, checkland1981a, mullery1979a, kotonya1992a, kotonya1995a, sommerville1995a, basili2006a, checkland1990a, rombach1991a, bro1995a, becker1997a, vertage1994a, bandinelli1995a, bandinelli1993a, madhavji1994a, heineman1994a, turgeon1996a, finkelstein1992a, nuseibeh1994a, easterbrook1996a</t>
+  </si>
+  <si>
+    <t>brodman1994a, kautz1999a, argyris1991a, mcfeeley1996b, iversen1998a, hansen1998a, hansen1998b, kautz2000b, rogers1983a, kautz1999b, borum1995a</t>
+  </si>
+  <si>
+    <t>basili1988b, debou1995a, mcfeeley1996c, mcgarry1994a, paulk1993a, paulk1993e, pulford1995a, spice1997a</t>
+  </si>
+  <si>
     <t>whitney1994a, dunaway1996a, dedolph1994a, team2000a, humphrey1989a, hefner1999a, caputo1997a, humphrey1999a, caputo1999a, caputo1999a, waina2000a, associates1996a, davis2000a, ferguson1998a, wigle1999a, rifkin1990a, eagen1999a, waina2001b, kaplan1992a, austin1996a, jones2001a, florac1997a, park1996a, perkins2001a, zuse1998a, dekkers1999a</t>
   </si>
   <si>
+    <t>humphrey1989a, paulk1993b, cattaneo2001a, herbsleb1995a, bandinelli1995a, sommerville1999a, solingen1999a, karlsson1997a, saaty1980a, point2002a, forman1998a, montgomery1991a, siegel1956a, thayer2005a, mcconnell1998a, yin1994a, bratthall2000b, wohlin2000b, humphrey1995a</t>
+  </si>
+  <si>
+    <t>paulk1993b, keeni2000a, keeni2002a, keeni2001a, keeni2000b, radice2001a, nandivada2000a, radice1999a, card2000a, prasad2001a, murugappan2002a, sytsma1999a, murugappan2000a</t>
+  </si>
+  <si>
+    <t>debou2000a, balla2001a, cattaneo2001a, dawson2003a, iso1994e, latum1998a, mellis1998a, neiger2003a, paulk1995b, solingen2000b, solingen1999a, stelzer1998a, trienekens2001a</t>
+  </si>
+  <si>
+    <t>debou2000a, balla2001a, cattaneo2001a, dawson2003a, gack2003a, iso2005a, kaplan2001a, latum1998a, mellis1998a, neiger2003a, paulk1995b, solingen2000b, solingen1999a, stelzer1998a, trienekens2001a</t>
+  </si>
+  <si>
+    <t>sommerville2004a, stiller2002a, jing2001a, sixsigma2000a, nasa2000a, lawler2003a, kan2003a, basili1994a, park1996a, mcgarry2001a, florac1999a, eickelmann2003a, paulk2000a, sixsigma2003a, murugappan2003a, chrissis2004a</t>
+  </si>
+  <si>
+    <t>iso2001a, paulk1993a, paulk1993e, paulk1994b, akao1990c, akao1998a, zultner1995a, richardson2002a, hierholzer1998a, akao1998b, richardson1997a, frank2003a, liu1998a, zultner1992a</t>
+  </si>
+  <si>
+    <t>akao1990c, akao1998b, akao1998a, bamberger1997a, hierholzer1998a, hyde2004a, klein1998a, krasner1994b, liu1998a, frank2003a, paulk1994a, paulk1993a, paulk1993e, paulk1995a, richardson1997a, richardson2002a, saaty1990a, zultner1992b, zultner1995a</t>
+  </si>
+  <si>
     <t>anacleto2004a, anacleto2004b, chrissis2003a, cignoni1999a, cspt2003a, institute2005a, iso2006a, ISOIEC2006a, makinen2000a, caffery2005a, caffery2004a, mcfall2003a, mcfeeley1996a, rout2001a, paulk1995a, team2007a, sei2004a, sei2005a, wilkie2004a, wilkie2005a</t>
   </si>
   <si>
+    <t>basili1984a, basili1989a, basili1994a, becker1999a, bianchi2001a, buglione2000a, card2003b, chrissis2003a, cobit2007a, kaplan1992a, offen1997a, ogc2002a, usddusa2003a, weiss1998a, basili1994b</t>
+  </si>
+  <si>
+    <t>basili1994c, becker1999a, buglione2000a, chrissis2007a, cobit2007a, kaplan1992b, offen1997a, ogc2002a, tierstein1997a, dod2007a</t>
+  </si>
+  <si>
+    <t>basili1984a, basili1994a, chrissis2003a, ogc2002a, isaca2008b, kaplan1992a, psmsc2002a</t>
+  </si>
+  <si>
+    <t>salo2005a, krasner1997a, sei1993a, sei2002a, spice1998a, kuvaja1994a, beck2001a, gruhn1998a, curtis1992a, krasner1992a, bolcer1996a, basili1992b, henninger2001a, heller2003a</t>
+  </si>
+  <si>
     <t>akao1990a, biró1999a, brodman1995a, chrissis2003a, cox1992a, mccoy1998a, debou1999a, dyba2005a, grady1997a, hierholzer1998a, humphrey1989b, isoiec2003a, liu2005a, montoni2007a, niazi2003a, paulk1993a, peterson1995a, pitterman2000a, pulford1996a, weber2005a, yamamura1999a, yin2003a, zahran1998a, zaijun2005a</t>
   </si>
   <si>
+    <t>salo2005a, krasner1997a, paulk1993a, cmm2002a, isoiec1998a, isoiec1998b, isoiec1998c, kuvaja1994a, emam1999a, arthur1993a, pfleeger1994a, solingen1999a, martins2007b, vertage1994a</t>
+  </si>
+  <si>
+    <t>akao1990b, biró1999a, brodman1995a, cox1992a, debou1999a, dyba2005a, grady1997b, hierholzer1998a, humphrey1989a, liu2005a, mccoy1998a, mintzberg2000a, niazi2003a, oliveira1998a, peterson1995a, pitterman2000a, pulford1996b, richardson2001a, serrano2003a, yamamura1999a, zahran1998a, zaijun2005a, messnarz1999a</t>
+  </si>
+  <si>
+    <t>balla2001a, boldyreff1997a, boltzmann2000a, habra2007a, humphrey2011a, kuilboer2000a, ngwenyama2003a, paulk1993b, paulk1995a, ruiz2002a, cmmi2001a, sei2006a, wangeheim2006a</t>
+  </si>
+  <si>
+    <t>nollen2008a, prahalad1999a, reed2000a, kaplan2000a, wright2000a, thompson2000a, lawrence2001a, mcnair1990a, adams1993a, kim1995a, dybå2003b, hefner2001a, cater2004a, softex2009a, cmusei2006a, isoiec2004b, isoiec2004a, komi2004a, birk1998a, birk2002a, caivano2005a, martins2007b, salo2005b, stalhane2004a, alloui2000a, bardin1977a, boehm2000b</t>
+  </si>
+  <si>
+    <t>basili1984a, kathuria2007a, basili2007b, basili2007c, basili2009a, basili1994d, kaplan1992b, basili2002a</t>
+  </si>
+  <si>
+    <t>paulk1994a, isoiec1998f, paulk1993b, paulk1993d, chrissis2003a, emam2009a, liu2005a, liu2006a, richardson2002a, richardson1997a, zultner1995a, zultner1992a, zultner1992b, hierholzer1998a, cmmi2006a, gibson2006a, liu2006b, serrano2004a, choi2005a, stelzer1996a, card2004a, beijun2008a, mary2002a, becker2008b, zaijun2005a, akao1990c</t>
+  </si>
+  <si>
+    <t>conradi2002a, becker2008b, softex2010a, rocha2006a, chrissis2003a, dyba2005a, pu2006a, mintzberg2000a, chiavenato2000a, kaplan1996a, itgi2010a, huang2009a, castillo2007a, pmi2004a, markovic2008a, basili1994a, park1996a, basili2007b, uraikul2007a, russell1995a, thomas2005a, montoni2007a</t>
+  </si>
+  <si>
+    <t>schmid2003a, bayer2006a, cohen1995a, biffl2003a, schweikhard2006a, vegas2005a, madachy2008a, boehm2000b, denger2006a, rus1999a, jedlitschka2004a, becker1997b, avison1991a, becker2008b, fitzgerald2003a, ecss2009a, bssc2009a, armbrust2009a, david1988a, sheskin1997a, venkatesh2003a</t>
+  </si>
+  <si>
+    <t>basili2010a, asgarkhani2006a, basili2009b, neergaard2007a, capell2004a, card2003a, chastek2009a, dyba2005a, ebert2007a, el2007a, el2001a, fahey2007a, goethert2003a, goethert2004a, gopal2005a, harjumaa2008a, isoiec2004a, isoiec2007a, isoiec2008a, issac2006a, kahraman2007a, kamel2009a, kanji2007a, kaplan1997a, kaplan2005a, kaplan2006a, kaplan2008a, kojima2008a, kuppusamy2008a, lamb1984a, long2008a, mcgarry2002a, mcloone2007a, mehra2004a, mishra2008a, oliveira2009a, peng2007a, porter1979a, qi2007a, shull2006a, sei2006b, trienekens2009a, tuan2006a, watson2007a, el2007a</t>
+  </si>
+  <si>
+    <t>basili1994a, basili2007a, kaplan1992a, usddusa2003a, becker1999a, buglione2000a, bianchi2001a, card2003b, code2010a, clegg1994a, boehm2000a</t>
+  </si>
+  <si>
+    <t>basili2007c, woodall2000a, kautz1999a, umarji2008a, basili1994a, basili1993a, basili2007a, basili2009a, basili2010a, latum1996a, briand1996a, henricksen2002a, derose1992a</t>
+  </si>
+  <si>
+    <t>oecd2006a, cmmi2006a, isoiec2003c, coallier1994a, iso1994c, iso2000a, hailey2011a, group2009a, fagan1976a, dijkstra1979a, solon2002a, zahran2010a, humphrey1991a, dion1992a, dion1993a, yamamura1997a, butler2000a, cmmi2005a, emam1997b, krasner2011a, brodman1995a, brodman1996a, pfleeger1996a, butler1995a, herbsleb1994a, herbsleb1994b, goldenson2003a, burzcuk2002a, garmus2007a, krasner1994a, krasner1995a, putnam1997a, mcloone2007a, liu2007a, o2003a, fayad1997a, jones1996a, reifer2000a, debou2000a, liu2006a, basili1992a, basili1994a, goyal2010a, chrissis2003a, cmmi2002a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010a, oecd2004a, cmmi2006b, isoiec2003c, iso1994d, iso2000b, hailey2011a, humphrey1991a, yamamura1997a, butler2000a, brodman1995a, dion1993a, herbsleb1994b, krasner1994a, putnam1997a, cmmi2005b, sapp2007a, goyal2001a, mcloughlin2010a, basili1992a, basili1994a, basili1988a, basili1984a, cmmi2002b, cmmi2002c, chrissis2003a, houston1996a, garmus2001a, mccabe1976a</t>
+  </si>
+  <si>
+    <t>erdogmus2004a, brandon1998a, boehm2003a, boehm2003b, basili1993a, basili1994a, basili2010a, mandić2010b</t>
+  </si>
+  <si>
+    <t>basili2007c, ieee1981a, basili1993a, basili1994a, basili2007a, basili2010b, basili2007b, basili2010c, basili2010a, basili1984a, berry2006a, biffl2006a, böckle2004a, boehm2003b, boehm2006a, boehm2003a, brynjolfsson2000a, emam2005a, erdogmus2004a, faulk2010a, grünbacher2006a, halling2003a, harrison2006a, little2004a, mandić2010c, reifer2002a, rodger1999a, sharma2008a, thomas2001a, thorp2003a, tierstein1997a, solingen2004a, solingen1999a, boehm2005a</t>
+  </si>
+  <si>
+    <t>standardization2006a, cmmi2009a, schmid2003a, bayer2006b, cohen1995a, biffl2003a, schweikhard2006a, vegas2005a, madachy2008a, boehm2000c, denger2006a, rus1999b, jedlitschka2004a, becker1997b, avison1991b, becker2008b, fitzgerald2003a, ecss2009b, esa2009a, basili1994c, david1988a, äder2002a, biffl2000a, biffl2001a, mccarthy1996a, wojcicki2008a, ourghanlian2003a, becker2008b</t>
+  </si>
+  <si>
+    <t>accenture2004a, orlov2007a, gartner2007a, basili2010a, solingen2002a, isoiec2003b, kowalczyk2011a</t>
+  </si>
+  <si>
+    <t>kathuria2007a, basili2007b, basili2009a, basili1992a, kowalczyk2010a, isaca2005a, isaca2008a, ogc2002a, kaplan1992a, becker1999a, jaxa2012a</t>
+  </si>
+  <si>
+    <t>rausch2007a, cmmi2010a, takeuchi1986a, beck1999a, armbrust2010a, boehm2010a, fenton2002a, raffo1999a, raffo2000a, basili2009a, dickmann2007a, ast2010a, esfahani2010a, moore1966a, birkhölzer2008a, pe2011a, luenberger1984a, beck2003a, erdogmus2005a</t>
+  </si>
+  <si>
+    <t>isoiec2003b, cmmi2006a, shewhart1931a, dion1993a, mcfeeley1996a, isoiec1998d, simon2002a, venzin2003a</t>
+  </si>
+  <si>
+    <t>esfahani2010a, kaplan1996a, kaplan1996c, kaplan2004a, institute2010a, martinsons1999a, grembergen2002a, huang2007a, kim2003a, sureshchandra2008a, eilat2008a, yu1997a, brinkkemper1996a, poppendieck2003b, sidky2007a, sidky2007b, qumer2008a, krasteva2010a</t>
+  </si>
+  <si>
+    <t>isoiec2008b, isoiec2006a, cmmi2006a, shewhart1931a, dion1993a, mcfeeley1996a, isoiec1998d, plösch2011a, simon2002a, venzin2003a, abb2006a, siemens2007a, isoiec2008c</t>
+  </si>
+  <si>
+    <t>mandić2010b, pfeffer1998a, staron2011a, basili2010a, basili1994a, basili1994b, mandić2010b, lyne2003a, peppard2001a, rautiainen1999a, krishnan2001a, curtis1988a, dagnino2001a, jaufman2004a, karlström2005b, genus2006a, dove2005a, patanakul2010a, turner2007a, allee2008a, mcgrath2004a, sicotte2000a, lainhart2000a, mcgarry2002a, kaplan1992a, pan2007a, olsina2011b, papa2012a, mandić2010c, kowalczyk2010a, edmondson2007a, gummesson1991a</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2009a, basili2010a, eisenhardt1989a, kaplan1992b, lainhart2000a, maltz2003a, mcgrath2004b, unch2012a, münch2013c, pan2007a, pfeffer1998a, software2013a, staron2011a, yin2009a</t>
+  </si>
+  <si>
+    <t>mandić2010b, accenture2004a, sw1998a, ai1994a, basili1981a, basili1985a, basili1989a, basili1993a, basili1995b, basili1994e, basili1988c, basili1984b, basili1994f, basili1994a, basili1995a, basili1996a, basili2010a, beck2004a, becker1999a, boehm2003b, briand1996a, brindgeland2008a, budd2009a, buglione2000a, burlton2010a, chillarege1992a, ciolkowski2002a, cmmi2010a, conradi2002a, damiani2008a, deming1986b, eckerson2005a, epstein1998a, fagan1976b, gamma1994a, gartner2010a, gartner2011a, gresse1995a, hammer1990b, hammer2010a, hammer1993a, humphrey2005a, isoiec2009a, kaplan1992a, kaplan1996a, kaplan2004b, kaplan2008b, kerth2001a, laitenberger2002a, mandic2012a, mandić2010a, mandić2010g, mandić2010b, nch2004a, unch2012a, neely1995a, nudurupati2011a, offen1997a, ogc2009a, omg2010a, pmi2013a, porter1996a, porter2008a, rombach1995a, rosemann2010a, sarcia2010a, schwaber2004a, selby2005a, shewhart1939a, trendowicz2011a, solingen1999b</t>
+  </si>
+  <si>
+    <t>basili2010a, münch2009a, mandić2010b, basili2007a, basili2014d, sarcia2010a, asghari2012a, jenkins2012a, chrissis2011a, basili2009a, mandić2010b</t>
+  </si>
+  <si>
+    <t>kitchenham1996a, scacchi2001a, sjøberg2007a, wirth2008a, card2004a, coleman2007a, dybå2000a, canfora2006a, ferreira2008a, goldenson2003a, hyde2004a, mohagheghi2008a, murugappan2003a, redzic2006a, sommerville2005a, trienekens2001a, achatz2003a, salo2005b, jones1996a, briand1996a, paulish1994a, florac1999b, freeman1992a, abrahamsson2000a, dror2007a, iversen2006a, unterkalmsteiner2012a, gorschek2006d, unterkalmsteiner2011a, cmusei2011a, isoiec1998e, ares2000a, ekdahl2006a, fenton2001a, pulford1996a, kuntzmann1995a, paulk1993b, debou2000a, basili1984a, basili1994a, basili2007b, cmusei2010a, basili2010a, park1996a, goethert2004a, järvinen2000a, järvinen1999a, jarvinen1999a, mcgarry2002a, card2003c, isoiec2002b, bailey2003a, herbsleb1998a, berry2000a, kasunic2008a, umarji2009a, gorschek2008a, stålhane2004a, daskalaivtonakis1990a, comer1993a, niessink1998a, díaz2008a, lowy2004a, linberg1999a, zahran1998a, daskalantonakis1992a, ebert1999a, parkinson2010a, gorschek2004a, ivarsson2012a, ramil2001a, iversen2003a, solingen1999a, atkinson1999a, kerzner1995a, basili1995a, murugappan2000a, weiss2002a, moreau2003a, pearl1998a, solingen2004a, norreklit2000a, norreklit2000a, herbsleb1994a, savioja2007a, preston2000a, knapp1990a, stevens1946a, pfleeger1997a, seaman1999a, jenkins1997a, kvale1996a, kasunic2005a, salant1994a, wohlin2000a</t>
+  </si>
+  <si>
+    <t>lepmets2014b, barafort2009a, lepmets2012a, lepmets2011a, mesquida2012a, boehm2004a, coleman2008a, dettmer2011a, kurtz2003a, snowden2007a, eisenhardt2000a, senge1990a, clarke2012b, mcbride2012a, shrestha2013a, jeners2013a, stallinger2011a, salo2007a</t>
+  </si>
+  <si>
     <t>ali2012a, ardimento2006a, baca2013a, basili2007a, basili2010a, basili1984a, boyd2002a, boyd2005a, briand1996a, brydon2003a, bühne2005a, basili1994a, colombo2003a, damm2006a, davis2006a, dieste2011a, finke2011a, gencel2013a, graham2009a, guest2006a, isoiec2002a, ivarsson2011a, iversen2004a, münch2013a, münch2013c, kaneko2011a, kaplan1996a, keele2007a, kilpl2001a, mandić2010f, mandić2010b, mandić2010c, mandić2010d, mcgarry2002a, mendonça2000a, jm1994a, mujtaba2011a, j2008a, offen1997a, park1996b, petersen2013a, petersen2009a, petersen2009b, petersen2010a, petersen2010b, petersen2011a, poppendieck2003a, runeson2009a, runeson2012a, sarcia2010a, scholtes2003a, tahir2011a, trendowicz2011a, linden2007a, latum1998a, wilson2002a, yin2011a</t>
   </si>
   <si>
-    <t>kathuria2007a, basili2007b, basili2009a, basili1992a, kowalczyk2010a, isaca2005a, isaca2008a, ogc2002a, kaplan1992a, becker1999a, jaxa2012a</t>
-  </si>
-  <si>
-    <t>conradi2002a, becker2008b, softex2010a, rocha2006a, chrissis2003a, dyba2005a, pu2006a, mintzberg2000a, chiavenato2000a, kaplan1996a, itgi2010a, huang2009a, castillo2007a, pmi2004a, markovic2008a, basili1994a, park1996a, basili2007b, uraikul2007a, russell1995a, thomas2005a, montoni2007a</t>
-  </si>
-  <si>
-    <t>balla2001a, boldyreff1997a, boltzmann2000a, habra2007a, humphrey2011a, kuilboer2000a, ngwenyama2003a, paulk1993b, paulk1995a, ruiz2002a, cmmi2001a, sei2006a, wangeheim2006a</t>
-  </si>
-  <si>
-    <t>basili2010a, asgarkhani2006a, basili2009b, neergaard2007a, capell2004a, card2003a, chastek2009a, dyba2005a, ebert2007a, el2007a, el2001a, fahey2007a, goethert2003a, goethert2004a, gopal2005a, harjumaa2008a, isoiec2004a, isoiec2007a, isoiec2008a, issac2006a, kahraman2007a, kamel2009a, kanji2007a, kaplan1997a, kaplan2005a, kaplan2006a, kaplan2008a, kojima2008a, kuppusamy2008a, lamb1984a, long2008a, mcgarry2002a, mcloone2007a, mehra2004a, mishra2008a, oliveira2009a, peng2007a, porter1979a, qi2007a, shull2006a, sei2006b, trienekens2009a, tuan2006a, watson2007a, el2007a</t>
-  </si>
-  <si>
-    <t>basili1994a, basili2007a, kaplan1992a, usddusa2003a, becker1999a, buglione2000a, bianchi2001a, card2003b, code2010a, clegg1994a, boehm2000a</t>
-  </si>
-  <si>
-    <t>finkelstein1994a, fuggetta1996a, hammer1990a, humphrey1988a, paulk1993c, haase1994a, emam1997a, sommerville1997a, emmet1996a, sommerville1997b, sommerville1998a, osterweil1987a, fernstro1993a, sutton1997a, paulk1995a, sommerville1996a, cugola1996a, conradi1995a, checkland1981a, mullery1979a, kotonya1992a, kotonya1995a, sommerville1995a, basili2006a, checkland1990a, rombach1991a, bro1995a, becker1997a, vertage1994a, bandinelli1995a, bandinelli1993a, madhavji1994a, heineman1994a, turgeon1996a, finkelstein1992a, nuseibeh1994a, easterbrook1996a</t>
-  </si>
-  <si>
-    <t>sommerville2004a, stiller2002a, jing2001a, sixsigma2000a, nasa2000a, lawler2003a, kan2003a, basili1994a, park1996a, mcgarry2001a, florac1999a, eickelmann2003a, paulk2000a, sixsigma2003a, murugappan2003a, chrissis2004a</t>
-  </si>
-  <si>
-    <t>salo2005a, krasner1997a, paulk1993a, cmm2002a, isoiec1998a, isoiec1998b, isoiec1998c, kuvaja1994a, emam1999a, arthur1993a, pfleeger1994a, solingen1999a, martins2007b, vertage1994a</t>
-  </si>
-  <si>
-    <t>isoiec2003b, cmmi2006a, shewhart1931a, dion1993a, mcfeeley1996a, isoiec1998d, simon2002a, venzin2003a</t>
-  </si>
-  <si>
-    <t>nollen2008a, prahalad1999a, reed2000a, kaplan2000a, wright2000a, thompson2000a, lawrence2001a, mcnair1990a, adams1993a, kim1995a, dybå2003b, hefner2001a, cater2004a, softex2009a, cmusei2006a, isoiec2004b, isoiec2004a, komi2004a, birk1998a, birk2002a, caivano2005a, martins2007b, salo2005b, stalhane2004a, alloui2000a, bardin1977a, boehm2000b</t>
-  </si>
-  <si>
-    <t>hinley1995a, itil1989a, miller1995a, hinley1997a, kaplan1993a, kaplan1996b, deming1986a, vlasveld1995a, iso1994a, trade1992a, humphrey1989a, isoies1997a, iso1994b, group1997a, cmm1993a</t>
-  </si>
-  <si>
-    <t>erdogmus2004a, brandon1998a, boehm2003a, boehm2003b, basili1993a, basili1994a, basili2010a, mandić2010b</t>
-  </si>
-  <si>
-    <t>debou2000a, balla2001a, cattaneo2001a, dawson2003a, gack2003a, iso2005a, kaplan2001a, latum1998a, mellis1998a, neiger2003a, paulk1995b, solingen2000b, solingen1999a, stelzer1998a, trienekens2001a</t>
-  </si>
-  <si>
-    <t>esfahani2010a, kaplan1996a, kaplan1996c, kaplan2004a, institute2010a, martinsons1999a, grembergen2002a, huang2007a, kim2003a, sureshchandra2008a, eilat2008a, yu1997a, brinkkemper1996a, poppendieck2003b, sidky2007a, sidky2007b, qumer2008a, krasteva2010a</t>
-  </si>
-  <si>
-    <t>akao1990b, biró1999a, brodman1995a, cox1992a, debou1999a, dyba2005a, grady1997b, hierholzer1998a, humphrey1989a, liu2005a, mccoy1998a, mintzberg2000a, niazi2003a, oliveira1998a, peterson1995a, pitterman2000a, pulford1996b, richardson2001a, serrano2003a, yamamura1999a, zahran1998a, zaijun2005a, messnarz1999a</t>
-  </si>
-  <si>
     <t>kurtz2003a, boehm2003c, coleman2008a, dettmer2011a, snowden2007a, lepmets2012a, salo2007a, paternoster2014a, thorpe2005a, pelrine2011a, hobcraft2015a, kim2015a, clarke2012b, samios2015a, lepmets2014a</t>
   </si>
   <si>
-    <t>brodman1994a, kautz1999a, argyris1991a, mcfeeley1996b, iversen1998a, hansen1998a, hansen1998b, kautz2000b, rogers1983a, kautz1999b, borum1995a</t>
-  </si>
-  <si>
-    <t>basili2007c, ieee1981a, basili1993a, basili1994a, basili2007a, basili2010b, basili2007b, basili2010c, basili2010a, basili1984a, berry2006a, biffl2006a, böckle2004a, boehm2003b, boehm2006a, boehm2003a, brynjolfsson2000a, emam2005a, erdogmus2004a, faulk2010a, grünbacher2006a, halling2003a, harrison2006a, little2004a, mandić2010c, reifer2002a, rodger1999a, sharma2008a, thomas2001a, thorp2003a, tierstein1997a, solingen2004a, solingen1999a, boehm2005a</t>
-  </si>
-  <si>
-    <t>basili2007c, woodall2000a, kautz1999a, umarji2008a, basili1994a, basili1993a, basili2007a, basili2009a, basili2010a, latum1996a, briand1996a, henricksen2002a, derose1992a</t>
-  </si>
-  <si>
-    <t>basili2010a, münch2009a, mandić2010b, basili2007a, basili2014d, sarcia2010a, asghari2012a, jenkins2012a, chrissis2011a, basili2009a, mandić2010b</t>
-  </si>
-  <si>
-    <t>kitchenham1996a, scacchi2001a, sjøberg2007a, wirth2008a, card2004a, coleman2007a, dybå2000a, canfora2006a, ferreira2008a, goldenson2003a, hyde2004a, mohagheghi2008a, murugappan2003a, redzic2006a, sommerville2005a, trienekens2001a, achatz2003a, salo2005b, jones1996a, briand1996a, paulish1994a, florac1999b, freeman1992a, abrahamsson2000a, dror2007a, iversen2006a, unterkalmsteiner2012a, gorschek2006d, unterkalmsteiner2011a, cmusei2011a, isoiec1998e, ares2000a, ekdahl2006a, fenton2001a, pulford1996a, kuntzmann1995a, paulk1993b, debou2000a, basili1984a, basili1994a, basili2007b, cmusei2010a, basili2010a, park1996a, goethert2004a, järvinen2000a, järvinen1999a, jarvinen1999a, mcgarry2002a, card2003c, isoiec2002b, bailey2003a, herbsleb1998a, berry2000a, kasunic2008a, umarji2009a, gorschek2008a, stålhane2004a, daskalaivtonakis1990a, comer1993a, niessink1998a, díaz2008a, lowy2004a, linberg1999a, zahran1998a, daskalantonakis1992a, ebert1999a, parkinson2010a, gorschek2004a, ivarsson2012a, ramil2001a, iversen2003a, solingen1999a, atkinson1999a, kerzner1995a, basili1995a, murugappan2000a, weiss2002a, moreau2003a, pearl1998a, solingen2004a, norreklit2000a, norreklit2000a, herbsleb1994a, savioja2007a, preston2000a, knapp1990a, stevens1946a, pfleeger1997a, seaman1999a, jenkins1997a, kvale1996a, kasunic2005a, salant1994a, wohlin2000a</t>
-  </si>
-  <si>
-    <t>humphrey1989a, paulk1993b, cattaneo2001a, herbsleb1995a, bandinelli1995a, sommerville1999a, solingen1999a, karlsson1997a, saaty1980a, point2002a, forman1998a, montgomery1991a, siegel1956a, thayer2005a, mcconnell1998a, yin1994a, bratthall2000b, wohlin2000b, humphrey1995a</t>
-  </si>
-  <si>
-    <t>isoiec2008b, isoiec2006a, cmmi2006a, shewhart1931a, dion1993a, mcfeeley1996a, isoiec1998d, plösch2011a, simon2002a, venzin2003a, abb2006a, siemens2007a, isoiec2008c</t>
-  </si>
-  <si>
-    <t>koch1992a, kellner1991a, lientz1980a, rands1992a, tully1989a, humphrey1991b, drew1993a, hinley1993a, shepperd1990a, kellner1989a, hinley1992a, humphrey1989c, hinley1993b, basili1984b, rombach1987a, gilb1988a</t>
-  </si>
-  <si>
-    <t>paulk1994a, isoiec1998f, paulk1993b, paulk1993d, chrissis2003a, emam2009a, liu2005a, liu2006a, richardson2002a, richardson1997a, zultner1995a, zultner1992a, zultner1992b, hierholzer1998a, cmmi2006a, gibson2006a, liu2006b, serrano2004a, choi2005a, stelzer1996a, card2004a, beijun2008a, mary2002a, becker2008b, zaijun2005a, akao1990c</t>
-  </si>
-  <si>
-    <t>schmid2003a, bayer2006a, cohen1995a, biffl2003a, schweikhard2006a, vegas2005a, madachy2008a, boehm2000b, denger2006a, rus1999a, jedlitschka2004a, becker1997b, avison1991a, becker2008b, fitzgerald2003a, ecss2009a, bssc2009a, armbrust2009a, david1988a, sheskin1997a, venkatesh2003a</t>
-  </si>
-  <si>
-    <t>basili1988b, debou1995a, mcfeeley1996c, mcgarry1994a, paulk1993a, paulk1993e, pulford1995a, spice1997a</t>
-  </si>
-  <si>
-    <t>lepmets2014b, barafort2009a, lepmets2012a, lepmets2011a, mesquida2012a, boehm2004a, coleman2008a, dettmer2011a, kurtz2003a, snowden2007a, eisenhardt2000a, senge1990a, clarke2012b, mcbride2012a, shrestha2013a, jeners2013a, stallinger2011a, salo2007a</t>
-  </si>
-  <si>
-    <t>oecd2006a, cmmi2006a, isoiec2003c, coallier1994a, iso1994c, iso2000a, hailey2011a, group2009a, fagan1976a, dijkstra1979a, solon2002a, zahran2010a, humphrey1991a, dion1992a, dion1993a, yamamura1997a, butler2000a, cmmi2005a, emam1997b, krasner2011a, brodman1995a, brodman1996a, pfleeger1996a, butler1995a, herbsleb1994a, herbsleb1994b, goldenson2003a, burzcuk2002a, garmus2007a, krasner1994a, krasner1995a, putnam1997a, mcloone2007a, liu2007a, o2003a, fayad1997a, jones1996a, reifer2000a, debou2000a, liu2006a, basili1992a, basili1994a, goyal2010a, chrissis2003a, cmmi2002a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010a, oecd2004a, cmmi2006b, isoiec2003c, iso1994d, iso2000b, hailey2011a, humphrey1991a, yamamura1997a, butler2000a, brodman1995a, dion1993a, herbsleb1994b, krasner1994a, putnam1997a, cmmi2005b, sapp2007a, goyal2001a, mcloughlin2010a, basili1992a, basili1994a, basili1988a, basili1984a, cmmi2002b, cmmi2002c, chrissis2003a, houston1996a, garmus2001a, mccabe1976a</t>
-  </si>
-  <si>
-    <t>iso2001a, paulk1993a, paulk1993e, paulk1994b, akao1990c, akao1998a, zultner1995a, richardson2002a, hierholzer1998a, akao1998b, richardson1997a, frank2003a, liu1998a, zultner1992a</t>
-  </si>
-  <si>
-    <t>dod1996a, blackerby1993a, madni1998a, dynsys1998a, kapp1998a</t>
-  </si>
-  <si>
-    <t>basili1984a, basili1989a, basili1994a, becker1999a, bianchi2001a, buglione2000a, card2003b, chrissis2003a, cobit2007a, kaplan1992a, offen1997a, ogc2002a, usddusa2003a, weiss1998a, basili1994b</t>
-  </si>
-  <si>
-    <t>mandić2010b, accenture2004a, sw1998a, ai1994a, basili1981a, basili1985a, basili1989a, basili1993a, basili1995b, basili1994e, basili1988c, basili1984b, basili1994f, basili1994a, basili1995a, basili1996a, basili2010a, beck2004a, becker1999a, boehm2003b, briand1996a, brindgeland2008a, budd2009a, buglione2000a, burlton2010a, chillarege1992a, ciolkowski2002a, cmmi2010a, conradi2002a, damiani2008a, deming1986b, eckerson2005a, epstein1998a, fagan1976b, gamma1994a, gartner2010a, gartner2011a, gresse1995a, hammer1990b, hammer2010a, hammer1993a, humphrey2005a, isoiec2009a, kaplan1992a, kaplan1996a, kaplan2004b, kaplan2008b, kerth2001a, laitenberger2002a, mandic2012a, mandić2010a, mandić2010g, mandić2010b, nch2004a, unch2012a, neely1995a, nudurupati2011a, offen1997a, ogc2009a, omg2010a, pmi2013a, porter1996a, porter2008a, rombach1995a, rosemann2010a, sarcia2010a, schwaber2004a, selby2005a, shewhart1939a, trendowicz2011a, solingen1999b</t>
-  </si>
-  <si>
-    <t>mandić2010b, pfeffer1998a, staron2011a, basili2010a, basili1994a, basili1994b, mandić2010b, lyne2003a, peppard2001a, rautiainen1999a, krishnan2001a, curtis1988a, dagnino2001a, jaufman2004a, karlström2005b, genus2006a, dove2005a, patanakul2010a, turner2007a, allee2008a, mcgrath2004a, sicotte2000a, lainhart2000a, mcgarry2002a, kaplan1992a, pan2007a, olsina2011b, papa2012a, mandić2010c, kowalczyk2010a, edmondson2007a, gummesson1991a</t>
-  </si>
-  <si>
-    <t>basili2007c, basili2009a, basili2010a, eisenhardt1989a, kaplan1992b, lainhart2000a, maltz2003a, mcgrath2004b, unch2012a, münch2013c, pan2007a, pfeffer1998a, software2013a, staron2011a, yin2009a</t>
-  </si>
-  <si>
-    <t>basili1984a, basili1994a, chrissis2003a, ogc2002a, isaca2008b, kaplan1992a, psmsc2002a</t>
-  </si>
-  <si>
-    <t>accenture2004a, orlov2007a, gartner2007a, basili2010a, solingen2002a, isoiec2003b, kowalczyk2011a</t>
-  </si>
-  <si>
-    <t>salo2005a, krasner1997a, sei1993a, sei2002a, spice1998a, kuvaja1994a, beck2001a, gruhn1998a, curtis1992a, krasner1992a, bolcer1996a, basili1992b, henninger2001a, heller2003a</t>
-  </si>
-  <si>
-    <t>standardization2006a, cmmi2009a, schmid2003a, bayer2006b, cohen1995a, biffl2003a, schweikhard2006a, vegas2005a, madachy2008a, boehm2000c, denger2006a, rus1999b, jedlitschka2004a, becker1997b, avison1991b, becker2008b, fitzgerald2003a, ecss2009b, esa2009a, basili1994c, david1988a, äder2002a, biffl2000a, biffl2001a, mccarthy1996a, wojcicki2008a, ourghanlian2003a, becker2008b</t>
-  </si>
-  <si>
-    <t>akao1990c, akao1998b, akao1998a, bamberger1997a, hierholzer1998a, hyde2004a, klein1998a, krasner1994b, liu1998a, frank2003a, paulk1994a, paulk1993a, paulk1993e, paulk1995a, richardson1997a, richardson2002a, saaty1990a, zultner1992b, zultner1995a</t>
-  </si>
-  <si>
-    <t>rausch2007a, cmmi2010a, takeuchi1986a, beck1999a, armbrust2010a, boehm2010a, fenton2002a, raffo1999a, raffo2000a, basili2009a, dickmann2007a, ast2010a, esfahani2010a, moore1966a, birkhölzer2008a, pe2011a, luenberger1984a, beck2003a, erdogmus2005a</t>
-  </si>
-  <si>
-    <t>debou2000a, balla2001a, cattaneo2001a, dawson2003a, iso1994e, latum1998a, mellis1998a, neiger2003a, paulk1995b, solingen2000b, solingen1999a, stelzer1998a, trienekens2001a</t>
-  </si>
-  <si>
-    <t>basili1984a, kathuria2007a, basili2007b, basili2007c, basili2009a, basili1994d, kaplan1992b, basili2002a</t>
-  </si>
-  <si>
-    <t>paulk1993b, keeni2000a, keeni2002a, keeni2001a, keeni2000b, radice2001a, nandivada2000a, radice1999a, card2000a, prasad2001a, murugappan2002a, sytsma1999a, murugappan2000a</t>
-  </si>
-  <si>
-    <t>basili1994c, becker1999a, buglione2000a, chrissis2007a, cobit2007a, kaplan1992b, offen1997a, ogc2002a, tierstein1997a, dod2007a</t>
-  </si>
-  <si>
     <t>selected backward list</t>
   </si>
   <si>
     <t>mccoy1998a, liu2005a</t>
   </si>
   <si>
+    <t>liu2005a, mccoy1998a, messnarz1999a</t>
+  </si>
+  <si>
+    <t>basili2007b, basili2007c</t>
+  </si>
+  <si>
+    <t>liu2005a, liu2006a, becker2008b</t>
+  </si>
+  <si>
+    <t>becker2008b, basili2007b</t>
+  </si>
+  <si>
+    <t>basili2010a, trienekens2009a</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2007a, basili2010a</t>
+  </si>
+  <si>
+    <t>debou2000a, liu2006a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010a, mcloughlin2010a</t>
+  </si>
+  <si>
+    <t>basili2010a, mandić2010b</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2007a, basili2007b, basili2010a</t>
+  </si>
+  <si>
+    <t>becker2008b, becker2008b</t>
+  </si>
+  <si>
+    <t>basili2007b, kowalczyk2010a</t>
+  </si>
+  <si>
+    <t>mandić2010b, basili2010a, mandić2010b, kowalczyk2010a</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2010a, münch2013c</t>
+  </si>
+  <si>
+    <t>mandić2010b, basili2010a, mandić2010a, mandić2010b, trendowicz2011a</t>
+  </si>
+  <si>
+    <t>basili2010a, mandić2010b, basili2007a, mandić2010b</t>
+  </si>
+  <si>
+    <t>murugappan2003a, debou2000a, basili2007b, basili2010a</t>
+  </si>
+  <si>
     <t>basili2007a, basili2010a, münch2013a, münch2013c, kaneko2011a, mandić2010b, mandić2010d, trendowicz2011a</t>
   </si>
   <si>
-    <t>basili2007b, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>becker2008b, basili2007b</t>
-  </si>
-  <si>
-    <t>basili2010a, trienekens2009a</t>
-  </si>
-  <si>
-    <t>basili2010a, mandić2010b</t>
-  </si>
-  <si>
-    <t>liu2005a, mccoy1998a, messnarz1999a</t>
-  </si>
-  <si>
-    <t>basili2007c, basili2007a, basili2007b, basili2010a</t>
-  </si>
-  <si>
-    <t>basili2007c, basili2007a, basili2010a</t>
-  </si>
-  <si>
-    <t>basili2010a, mandić2010b, basili2007a, mandić2010b</t>
-  </si>
-  <si>
-    <t>murugappan2003a, debou2000a, basili2007b, basili2010a</t>
-  </si>
-  <si>
-    <t>liu2005a, liu2006a, becker2008b</t>
-  </si>
-  <si>
-    <t>debou2000a, liu2006a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010a, mcloughlin2010a</t>
-  </si>
-  <si>
-    <t>mandić2010b, basili2010a, mandić2010a, mandić2010b, trendowicz2011a</t>
-  </si>
-  <si>
-    <t>mandić2010b, basili2010a, mandić2010b, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>basili2007c, basili2010a, münch2013c</t>
-  </si>
-  <si>
-    <t>becker2008b, becker2008b</t>
-  </si>
-  <si>
-    <t>basili2007b, basili2007c</t>
-  </si>
-  <si>
     <t>forward list</t>
   </si>
   <si>
+    <t>alshawi2007a, halloran1999a, baddoo2001a, stelzer1998b, schalken2007a, donkin2002a, murakami2007a, brouwer2007a, bowers2001a, makipaa2004a</t>
+  </si>
+  <si>
+    <t>becker2008a, becker2008b</t>
+  </si>
+  <si>
+    <t>niazi2005a, dyba2005a, niazi2005b, abrahamsson2001a, komi2004a, komi2004a, becker2008b, messnarz2012a, messnarz2009a, abrahamsson2007a, emam2001b, spork2008a, rose2008a, kettunen2010a, pries2003a, hrastnik2004a, messnarz2011a, messnarz2006a, messnarz2010a, barafort2011a, messnarz2011b, riel2010b, mccaffery2013a, emam2001c, biró2006a, content2004a, biro1999a, connor2011a, stolfa2017a, messnarz2010b, connor2015a, kreiner2016a, area1999a, barafort2014a, winkler2012a, rose2015a, guzmán9999a, area1999a, messnarz9999a</t>
+  </si>
+  <si>
+    <t>karlström2002a, marcus2005a, kandé2000a, sawyer2002a, liu2008a, katz2004a, ghose2007a, gans2003a, karlström2005a, ghose2007b, kabbaj2008a, egorova2009a, marcelloni2001a, easterbrook2001a, yang2007a, zhang2009a, acharya2005a, nguyen2003a, taipale2007a, rayson1999a, rayson2000a, katz2004b, rayson1999b, bent2006a, kim2014a, rayson1999c, soares2012a, zhang2010a, nguyen2004a, müller2012a, eljabiri2012a, michel2009a, aysolmaz2011a, eljabiri2001a, berkovich2012a, nunn2016a, morisio2009a, aida2003a, charrel2007a, jun2007a, jurczuk2017b, jesko9999a, solaimani2017a, jurczuk2017a, karlström2002b, lui2008a, nair2009a, francalanci2016a, ghose9999a, solaimani2014a, zhiping2011a, alves2002a, vázquez2001a, vazquez2000a, apfelbacher2007a</t>
+  </si>
+  <si>
+    <t>hansen2004a, gorschek2008a, kautz2004a, guerrero2004a, kauppinen2004a, müller2010a, carter2001a, pino2010b, gorschek2006b, mishra2009a, gorschek2004a, casey2004a, gorschek2012a, pino2009a, kasurinen2013a, leung2007a, farooq2007a, alagarsamy2008a, santos2011a, cater2004b, kauppinen2001a, petersen2014a, vähäniitty2003a, alagarsamy2007a, kautz2001a, leih2006a, mishra2008a, svahnberg2013a, tjornehoj2008a, tjørnehøj2010a, pino2009b, gleirscher2014a, habib2008a, aysolmaz2011b, mas2005a, dagnino2014a, casey2002a, kautz2001b, bekkers2012a, kautz2001c, mäkiö2010a, adamonis2005a, wong2006a, gruner2011a, cater2004c, kauppinen2005a, landaeta2008a, balandis2005a, walker2007a, begum2010a, sujaritha2007a, kasurinen2012a, zyl2009a, klendauer2012a, kauppinen2002a, emam2006a, dagnino2014b, pernstål2013a, hjalmarsson2004a, aysolmaz2011c, shen2008a, rasidi2008a, carter2001b, tjørnehøj2008a, suganya2016a, preis2012a, hjalmarsson2004b, gon2012a, bertrand2008a, khdair2009a, sanders2008a, gon2014a, gorschek2006c, arenis2016a, key2016a, kautz2000c, kasurinen2017a, gong2005a, rodríguez2010a, vähäniitty2003b, ayaz2017a, rudzki2011a, curiel2013a, leite2010a, batista2009a, khdair2009a, saikkonen9999a, metodologia2009a, montoni2007b, laru2007a, machado9999a</t>
+  </si>
+  <si>
+    <t>dyba2005a, unterkalmsteiner2012a, staples2008a, walia2009a, cater2006a, mishra2009a, cater2001a, ba2009a, weerd2010a, basri2010a, richardson2001a, cater2004b, weerd2009a, ferreira2011a, visconti2002a, napier2008a, richardson2002a, santos2009a, kandt2003a, walia2007a, vasconcellos2017a, jedlitschka2004a, ba2008a, butt2008a, cater2005a, walia2009b, ferreira2010a, cheng2009a, halloran2004a, basri2010b, hernández2010a, santana2007a, aguiar2008a, roggio2000a, tagra2009a, fröhlich2001a, taipale2005a, utulu2013a, cater2006b, alexandre2003a, santana2008a, richardson2002b, donkin2002a, cater2006c, chaurasia2015a, niazi2018a, aguiar2008a, sampaio2010a, ferreira2011b, mcloughlin2010a, trienekens2004a, trienekens2005a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
     <t>dounos2010a, ye2010a</t>
   </si>
   <si>
+    <t>rovegård2008a, wohlin2012a, karlström2005a, taipale2007a, jönsson2005a, jönsson2005b, brenda2013a, jönsson2007a, jönsson2005c, wohlin2012b, wohlin2012c, wohlin2012d, muñoz2014a, wohlin2012e, hjalmarsson2004a, tihinen2006a, mirna2014a, wohlin2012f, ali2013a, wohlin2012g, wohlin2012h, hjalmarsson2004b, ali2012b, ali2010a, wohlin2012i, jönsson2008a, angelis2008a, wohlin2012j, muñoz2016a, schrama2013a</t>
+  </si>
+  <si>
+    <t>kwak2006a, aboelmaged2010a, unterkalmsteiner2012a, subramanian2007a, nonthaleerak2006a, wu2006a, tjahjono2010a, tang2007a, mahanti2005a, anbari2004a, siviy2007a, mahanti2009a, kundu2012a, wang2005b, mahanti2006a, jiang2011a, knowles2011a, brady2005a, garcia2009a, antoniol2004a, kundu2012b, patel2009a, li2008a, patyal2015a, bahli2004a, zhang2008c, landaeta2008a, asato2011a, bubevski2014a, müller2012a, besseris2010a, kundu2016a, cheng2009a, wandersman2012a, rico2010a, el2011a, barcellos2008b, el2013a, unterkalmsteiner2010a, wang2005c, chen2007b, deng2015a, daubner2008a, rico9999a, choi2006a, khan2016a, dalipi2012a, nyambegera2014a, islam2009a, strate2013a, el2010b, zhang9999a, tong2009a, paruchuri2009a, manohar9999a, manohar9999a, sharma2012a, tse2005a, bubevski2016a, u2018a, chen2007c, al2018a, sharma2017a, simmons2010a, mahanti2014a, cerdeiral2017a, quintella2017a, barcellos9999a, mayoral2012a, andrade9999a, sun2012a, tonini2006a, quintella9999a, caivano9999a, horizonte2017a, unterkalmsteiner2014a, wang2005a</t>
+  </si>
+  <si>
+    <t>el2010a</t>
+  </si>
+  <si>
+    <t>staples2008a, chen2008a, glykas2011a, vuk2010a, chen2007a, shahzad2012a, vasconcellos2017a, glykas2014a, brenda2013a, lang2010a, savioja2007a, zawedde2016a, lohrmann2013a, songnisai2008a, siritanachot2008a, vasconcellos2017b, lang2014b</t>
+  </si>
+  <si>
+    <t>unterkalmsteiner2012a, wang2006a, yang2009a, lin2009a, monteiro2011a, wang2007a, lang2008a, gou2009a, gou2008a, li2006a, wang2008a, bhatti2009a, li2009a, ruan2007a, santos2008a, zhang2008a, mao2008a, wang2011a, zhang2010b, malik2010a, barcellos2008a, cheng2009a, barcellos2008b, du2010a, shu2010a, brito2016a, unterkalmsteiner2010a, lang2011c, malik2010b, monteiro2008a, barcellos2009a, bhatti2009b, zhai2008a, zhang2008b, mei2018a, oliveira2014a, zhang2008d, cerdeiral2017a, tomaz2017a, monteiro9999a, tatibana2017a, barcellos2014a</t>
+  </si>
+  <si>
+    <t>becker2008a, becker2008b, yihong2012a, fruehwirth2010a, cancian2010a, wong2006a, shah2010a, leba2012a, sharma2011a, lorentz2009a, sun2010a</t>
+  </si>
+  <si>
+    <t>zhu2010a, dounos2010a, liu2009a, kettunen2009b, cohen2008a, wang2013b, ye2010a, rodríguez2010a, cuervo9999a, mcloughlin2010a, sun2010a</t>
+  </si>
+  <si>
     <t>napier2009a, lester2010a, laporte2009a, zarour2009a, sánchez2016a, lester2007a, al2013a, zarour2011a, zarour2009b, taylor2009a</t>
   </si>
   <si>
+    <t>basili2009a, damiani2008a, aversano2016a, mandić2010c, ellis2012a, mulazzani2009a, samtani2012a, kelanti2013a, álvarez2015a, samtani2012b, quintero2012a, aoki2016a, mandić2010f, ellis2013a, heidrich2009a, hyysalo2014a, münch2012b, kobori2016a, münch2012c, ellis2013b, texel2015a, molina2012a, münch2009a, ahmad2016a, texel2013a, mandić2017a, mulazzani2009b, aoki2017a, roditi2014a, asghari2012a, pérez2017a, becker2014a, papa2015a, aarts2016a, cahyaningsih2014a, jayatilleke2017a, mandic2012a, lindqvist2016a, mughal2017a, kramer2014a, mulazzani2009c, monden2017a, nagel2015a, casare2012a, cervantes2016a, cervantes2012a, santo2015a, aarts2016a, chaos9999a, pinto9999a, basili2010a, cocozza2014a, mandić2010b, mandić2010d, petersen2015a</t>
+  </si>
+  <si>
+    <t>fagerholm2014a, mandić2010b, fagerholm2017a, lindgren2015a, heidrich2008a, papa2012a, lindgren2016a, mandić2010d, olsina2011b, luo2016a, kowalczyk2014a, dumke2009a, mandić2010f, ta2015a, münch2012b, kelemen2014a, dumke2014a, dumke2013a, münch2009a, valle2017a, papa2016a, heidrich2010a, luo2015a, roditi2014a, ciolkowski2008a, becker2014a, papa2012b, papa2015a, mandic2012a, cuadrado2010a, sadabadi2016a, sakul2017a, lindgren2015b, kowalczyk2010a, münch2013a</t>
+  </si>
+  <si>
+    <t>barreto2010a, münch2013e, amannejad2014a, sarcia2010a, harjumaa2008a, damiani2008a, ramler2010a, mandić2010c, caputo2010a, umarji2009b, kowalczyk2014a, danovaro2008a, fabijan2016a, cedergren2014a, yang2010a, przybylek2011a, uchida2016a, mandić2010f, buglione2011a, garousi2012a, barreto2009a, bennicke2008a, kowalczyk2013a, thammarak2011a, hernández2010a, guinea2013a, janes2014a, münch2009a, mandić2010e, mandić2017a, heidrich2012a, teles2014a, armbrust2007a, júnior2010a, mitre2014a, tsunoda2011a, mandic2012a, marcos2017a, watanabe2017a, janes2014b, machado2016a, ferreira2018a, thammarak2013a, mitrehernández2014a, moraes2017a, katopodis2015a, debruyn2014a, ferreira2014a, cansado2012a, bóka2009a, trinkenreich2015b, montebelo2008a, pimentel2016a, pinho2010a, dashkov2017a, rocha2009a, papazov9999a, cansado9999a, voigt9999a, marcos2017b, trinkenreich2015b, pimentel2016a, pinto9999a, rivera9999a, rocha2009a, kaneko2011a, kowalczyk2010a, mandić2010b, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>albuquerque2009a, martinez2011a, martínez2013a, martins2009a, martínez2013b, martins2007a, martins2010a, albuquerque2010a, albuquerque2009b, martins2016a, lang2011a, lang2011b, martins2008a</t>
+  </si>
+  <si>
     <t>spósito2016a</t>
   </si>
   <si>
+    <t>ollus2011a, uoti2011a, jansson2015a, muñoz2016a, jansson2011a</t>
+  </si>
+  <si>
+    <t>armbrust2010a, armbrust2010b, barreto2010a, ullah2011a, chebrolu2013a, mandić2010c, vasconcellos2017a, aversano2013a, barreto2011a, escofet2009a, escofet2010a, barreto2009a, lópez2012a, carvalho2010a, ullah2014a, lang2013a, lang2013b, moreira2017a, moreira2017b, armbrust2010b, sun2010a</t>
+  </si>
+  <si>
+    <t>guzmán2010a, colomo2011a, haigh2010a, lee2013a, colomo2012a, oliveira2010a, samalikova2011a, dijkman2016a, vanut2010a, liberato2015a, bruyn2012a, bruyn2014a, suominen2014a, huysmans2014a, zawedde2014a, zawedde2016a, hinz2010a, borgert2009a, haigh2012a, liberato2016a, lee2011a, haigh2012b</t>
+  </si>
+  <si>
+    <t>vasconcellos2017a, ardila2013a, lópez2012a, ardila2013b, freire2017a</t>
+  </si>
+  <si>
+    <t>kaneko2011a, kowalczyk2013a, heidrich2012a, chagas2016a, münch2013c</t>
+  </si>
+  <si>
+    <t>vezzetti2014a, cheng2014a, yuen2014a, bekkers2012a, wang2010a, niazi2015a, schillo2017a, liang2016a, serrano2013a, shah2010a, liang2013a, stasytyte2015a, han2012a, west2010a, safaie2017a, choi2014a, herzwurm2015a, alshehri2014a, sanchez2017a, choi2014b, vezzetti2012a, lee2013b, thakurta2016a, thakurta2014a, sanchez2018a, thakurta2015a, wang2012a, alshammari2013a, jeong2013a, aburub2014a, calik2012a, mohamed2015a, rensburg2012a, rodríguez2010a, wang2014a, wang2013a, marrone2017a, suscheck2010a, schockert2017a, stasytyte2015b, robles2016a, choi9999a, calik9999a, imonese2015a, gomes9999a, yilmaz2010a</t>
+  </si>
+  <si>
+    <t>lepmets2012a, barcellos2010a, barreto2010b, vasconcellos2017a, ardila2013a, barreto2011a, trinkenreich2015a, ardila2013b, khraiwesh2013a, cervantes2016a, cerdeiral2017a</t>
+  </si>
+  <si>
+    <t>birkhölzer2011b, aleixo2013a, hollauer2017a, teixeira2014a, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>lepmets2012a, becker2012a, pryor2011a, vasconcellos2017a, dadhich2012a, barreto2011a, cyrus2011a, lópez2012a, ramos2015a, sanchez2017a, mitre2014a, hamouda2013a, sanchez2018a, haghighatfar2013a, valenciennes2013a, aguirre2014a, mitrehernández2014a, salgado2015a, robles2016a</t>
+  </si>
+  <si>
+    <t>buse2012a, wallace2014a, paternoster2014a, novais2013a, lew2012a, giardino2014a, kim2016a, trendowicz2013a, guzmán2010a, papa2012a, sarcia2010a, bird2015a, becker2012a, basili2013a, becker2015a, becker2011b, olsina2011a, lew2011a, gencel2013a, mandić2010c, cedergren2011a, kläs2015a, olsina2014a, ferreira2013a, münch2012a, kobori2014b, monden2012a, olsina2011b, rivera2016a, kläs2013a, kobori2014a, liggesmeyer2014a, rivera2016b, giannoulis2013a, tahir2016a, álvarez2015a, heidrich2014a, murphy2015a, eremenko2012a, cedergren2014a, aoki2016a, jedlitschka2013a, mandić2010f, jahn2014a, lescher2011a, kobori2016a, zhang2014a, oberscheven2013a, lavazza2011a, giannoulis2014a, djouab2016a, hernández2010a, hästbacka2013a, leschera2012a, guinea2013a, lópez2016b, janes2014a, osadchyy2013a, khalifa2016a, lópez2016a, ahmad2016a, papa2016a, kettunen2014a, mandić2017a, ebner2014a, lavazza2013a, heidrich2013a, koumaditis2015a, marca2010a, sanchez2017a, poligadu2014a, koumaditis2016a, jaramillo2016a, rivera2015a, heidrich2012a, doerr2013a, novais2018a, asghari2012a, olsina2017a, lavazza2015a, washizaki2017a, pérez2017a, becker2014a, papa2012b, papa2015a, rivera2015b, rivera2016c, becker2017a, basili2014a, yamamoto2016a, falessi2014a, diep2016a, mitre2014a, machado2012a, abdulameer2015a, mandic2012a, rombach2014a, port2016a, santos2017a, olsina2013a, armstrong2016a, cedergren2011b, anders9999a, sanchez2018a, machado2016a, heidrich9999a, zapata2017a, mughal2017a, lavazza2015b, nicho2017a, mitrehernández2014a, olsina2012b, jørgensen2014a, hästbacka2013b, trendowicz2014b, hyvönen2015a, rombach2012a, eremenko2013a, erukulapati2017a, jeners2015a, rensburg2012a, boehm2014a, pinheiro2017a, mandić2012b, ferreira2014a, tebes2017a, xu2015a, trendowicz9999a, lang2014a, lang2017a, papa9999a, lang2017b, huberts9999a, mendoza2013a, robles2016a, cocozza2014a, mandić2010a, mandić2010b, mandić2010d, münch2013a, münch2013c, petersen2015a, trendowicz2011a, trendowicz2014a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>kobori2014a, ardila2013a, tahir2016a, kobori2016a, mandić2017a, asghari2012a, ardila2013b, petersen2015a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010b, deshpande2012a, cervantes2016a, cervantes2012a, kroll2014a, mcloughlin2010b</t>
+  </si>
+  <si>
+    <t>ponisio2012a, ponisio2011a, cervantes2016a</t>
+  </si>
+  <si>
+    <t>basili2014b, valente2015a, garay2013a, lópez2016a, basili2014a, basili2014c, valente2015b, trendowicz2014a</t>
+  </si>
+  <si>
+    <t>cocozza2014a, mandić2010a, basili2014b, mandić2010g, münch2013c, basili2013a, aversano2016a, ellis2012a, kobori2014b, kobori2014a, aoki2016a, astromskis2014a, ellis2013a, kobori2016a, fernández2011a, tyrväinen2015a, mandić2017a, cocozza2014a, roditi2014a, asghari2012a, papa2015a, dymek2015a, kalidoss2016a, trendowicz2014a, basili2014c, hyvönen2015a, dashkov2017a, münch2013c, petersen2015a, trendowicz2014a</t>
+  </si>
+  <si>
+    <t>petersen2015a, basili2014b, monden2012a, kobori2014a, shimura2017a, alves2014a, ellis2013a, kobori2016a, lópez2016a, mandić2017a, jaramillo2016a, heidrich2012a, asghari2012a, zapata2017a, brehm2014a, trendowicz2014a</t>
+  </si>
+  <si>
+    <t>kobori2014a, aoki2016a, kobori2016a, razón2014a, trinkenreich2017a, lópez2016a, mandić2017a, trinkenreich2015a, heidrich2012a, asghari2012a, watanabe2017a, razón2014b, teixeira2013a, tomaz2017a, petersen2015a</t>
+  </si>
+  <si>
+    <t>bjarnason2013a, ramos2015a, valenciennes2013a, jürisoo2017a</t>
+  </si>
+  <si>
+    <t>sanchez2017a, sharma2015a, carmo2017a, sanchez2018a, carmo2017b, robles2016a, stallinger2013a</t>
+  </si>
+  <si>
+    <t>babar2015a, esfahani2011b, schramm2014a, gandomani2013a, hochstetter2012a, stavru2012a, schramm9999a, rúa2015a</t>
+  </si>
+  <si>
+    <t>münch2013a, fagerholm2014a, fagerholm2017a, kobori2014b, kobori2014a, kettunen2015a, kobori2016a, trinkenreich2017a, lópez2016a, mandić2017a, roditi2014a, kettunen2016a, watanabe2017a, Hekkala2011a, raju2014a, ammala2015a, raju2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>lópez2016a, mandić2017a, hooge2016a, trinkenreich2017b, chagas2016a, petersen2015a</t>
+  </si>
+  <si>
+    <t>oliveira2018a</t>
+  </si>
+  <si>
+    <t>aoki2016a</t>
+  </si>
+  <si>
+    <t>unterkalmsteiner2016a, staron2016a, gorschek2015a, erukulapati2017a</t>
+  </si>
+  <si>
+    <t>lepmets2016b, arnold2016a, kruger2016a, oConnor2015a</t>
+  </si>
+  <si>
     <t>petersen2014a, tahir2016a, trinkenreich2017a, lópez2016a, mandić2017a, roditi2014a, mughal2017a, li2017a, petersen2016a, trinkenreich2017b, minhas2017a</t>
   </si>
   <si>
-    <t>kobori2014a, aoki2016a, kobori2016a, razón2014a, trinkenreich2017a, lópez2016a, mandić2017a, trinkenreich2015a, heidrich2012a, asghari2012a, watanabe2017a, razón2014b, teixeira2013a, tomaz2017a, petersen2015a</t>
-  </si>
-  <si>
-    <t>lepmets2012a, barcellos2010a, barreto2010b, vasconcellos2017a, ardila2013a, barreto2011a, trinkenreich2015a, ardila2013b, khraiwesh2013a, cervantes2016a, cerdeiral2017a</t>
-  </si>
-  <si>
-    <t>guzmán2010a, colomo2011a, haigh2010a, lee2013a, colomo2012a, oliveira2010a, samalikova2011a, dijkman2016a, vanut2010a, liberato2015a, bruyn2012a, bruyn2014a, suominen2014a, huysmans2014a, zawedde2014a, zawedde2016a, hinz2010a, borgert2009a, haigh2012a, liberato2016a, lee2011a, haigh2012b</t>
-  </si>
-  <si>
-    <t>lepmets2012a, becker2012a, pryor2011a, vasconcellos2017a, dadhich2012a, barreto2011a, cyrus2011a, lópez2012a, ramos2015a, sanchez2017a, mitre2014a, hamouda2013a, sanchez2018a, haghighatfar2013a, valenciennes2013a, aguirre2014a, mitrehernández2014a, salgado2015a, robles2016a</t>
-  </si>
-  <si>
-    <t>buse2012a, wallace2014a, paternoster2014a, novais2013a, lew2012a, giardino2014a, kim2016a, trendowicz2013a, guzmán2010a, papa2012a, sarcia2010a, bird2015a, becker2012a, basili2013a, becker2015a, becker2011b, olsina2011a, lew2011a, gencel2013a, mandić2010c, cedergren2011a, kläs2015a, olsina2014a, ferreira2013a, münch2012a, kobori2014b, monden2012a, olsina2011b, rivera2016a, kläs2013a, kobori2014a, liggesmeyer2014a, rivera2016b, giannoulis2013a, tahir2016a, álvarez2015a, heidrich2014a, murphy2015a, eremenko2012a, cedergren2014a, aoki2016a, jedlitschka2013a, mandić2010f, jahn2014a, lescher2011a, kobori2016a, zhang2014a, oberscheven2013a, lavazza2011a, giannoulis2014a, djouab2016a, hernández2010a, hästbacka2013a, leschera2012a, guinea2013a, lópez2016b, janes2014a, osadchyy2013a, khalifa2016a, lópez2016a, ahmad2016a, papa2016a, kettunen2014a, mandić2017a, ebner2014a, lavazza2013a, heidrich2013a, koumaditis2015a, marca2010a, sanchez2017a, poligadu2014a, koumaditis2016a, jaramillo2016a, rivera2015a, heidrich2012a, doerr2013a, novais2018a, asghari2012a, olsina2017a, lavazza2015a, washizaki2017a, pérez2017a, becker2014a, papa2012b, papa2015a, rivera2015b, rivera2016c, becker2017a, basili2014a, yamamoto2016a, falessi2014a, diep2016a, mitre2014a, machado2012a, abdulameer2015a, mandic2012a, rombach2014a, port2016a, santos2017a, olsina2013a, armstrong2016a, cedergren2011b, anders9999a, sanchez2018a, machado2016a, heidrich9999a, zapata2017a, mughal2017a, lavazza2015b, nicho2017a, mitrehernández2014a, olsina2012b, jørgensen2014a, hästbacka2013b, trendowicz2014b, hyvönen2015a, rombach2012a, eremenko2013a, erukulapati2017a, jeners2015a, rensburg2012a, boehm2014a, pinheiro2017a, mandić2012b, ferreira2014a, tebes2017a, xu2015a, trendowicz9999a, lang2014a, lang2017a, papa9999a, lang2017b, huberts9999a, mendoza2013a, robles2016a, cocozza2014a, mandić2010a, mandić2010b, mandić2010d, münch2013a, münch2013c, petersen2015a, trendowicz2011a, trendowicz2014a, unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>karlström2002a, marcus2005a, kandé2000a, sawyer2002a, liu2008a, katz2004a, ghose2007a, gans2003a, karlström2005a, ghose2007b, kabbaj2008a, egorova2009a, marcelloni2001a, easterbrook2001a, yang2007a, zhang2009a, acharya2005a, nguyen2003a, taipale2007a, rayson1999a, rayson2000a, katz2004b, rayson1999b, bent2006a, kim2014a, rayson1999c, soares2012a, zhang2010a, nguyen2004a, müller2012a, eljabiri2012a, michel2009a, aysolmaz2011a, eljabiri2001a, berkovich2012a, nunn2016a, morisio2009a, aida2003a, charrel2007a, jun2007a, jurczuk2017b, jesko9999a, solaimani2017a, jurczuk2017a, karlström2002b, lui2008a, nair2009a, francalanci2016a, ghose9999a, solaimani2014a, zhiping2011a, alves2002a, vázquez2001a, vazquez2000a, apfelbacher2007a</t>
-  </si>
-  <si>
-    <t>unterkalmsteiner2012a, wang2006a, yang2009a, lin2009a, monteiro2011a, wang2007a, lang2008a, gou2009a, gou2008a, li2006a, wang2008a, bhatti2009a, li2009a, ruan2007a, santos2008a, zhang2008a, mao2008a, wang2011a, zhang2010b, malik2010a, barcellos2008a, cheng2009a, barcellos2008b, du2010a, shu2010a, brito2016a, unterkalmsteiner2010a, lang2011c, malik2010b, monteiro2008a, barcellos2009a, bhatti2009b, zhai2008a, zhang2008b, mei2018a, oliveira2014a, zhang2008d, cerdeiral2017a, tomaz2017a, monteiro9999a, tatibana2017a, barcellos2014a</t>
-  </si>
-  <si>
-    <t>ollus2011a, uoti2011a, jansson2015a, muñoz2016a, jansson2011a</t>
-  </si>
-  <si>
-    <t>sanchez2017a, sharma2015a, carmo2017a, sanchez2018a, carmo2017b, robles2016a, stallinger2013a</t>
-  </si>
-  <si>
-    <t>vasconcellos2017a, ardila2013a, lópez2012a, ardila2013b, freire2017a</t>
-  </si>
-  <si>
-    <t>alshawi2007a, halloran1999a, baddoo2001a, stelzer1998b, schalken2007a, donkin2002a, murakami2007a, brouwer2007a, bowers2001a, makipaa2004a</t>
-  </si>
-  <si>
-    <t>basili2014b, valente2015a, garay2013a, lópez2016a, basili2014a, basili2014c, valente2015b, trendowicz2014a</t>
-  </si>
-  <si>
-    <t>staples2008a, chen2008a, glykas2011a, vuk2010a, chen2007a, shahzad2012a, vasconcellos2017a, glykas2014a, brenda2013a, lang2010a, savioja2007a, zawedde2016a, lohrmann2013a, songnisai2008a, siritanachot2008a, vasconcellos2017b, lang2014b</t>
-  </si>
-  <si>
-    <t>babar2015a, esfahani2011b, schramm2014a, gandomani2013a, hochstetter2012a, stavru2012a, schramm9999a, rúa2015a</t>
-  </si>
-  <si>
-    <t>armbrust2010a, armbrust2010b, barreto2010a, ullah2011a, chebrolu2013a, mandić2010c, vasconcellos2017a, aversano2013a, barreto2011a, escofet2009a, escofet2010a, barreto2009a, lópez2012a, carvalho2010a, ullah2014a, lang2013a, lang2013b, moreira2017a, moreira2017b, armbrust2010b, sun2010a</t>
-  </si>
-  <si>
     <t>lepmets2016a, arnold2016a, kruger2016a, górski2016a</t>
   </si>
   <si>
-    <t>hansen2004a, gorschek2008a, kautz2004a, guerrero2004a, kauppinen2004a, müller2010a, carter2001a, pino2010b, gorschek2006b, mishra2009a, gorschek2004a, casey2004a, gorschek2012a, pino2009a, kasurinen2013a, leung2007a, farooq2007a, alagarsamy2008a, santos2011a, cater2004b, kauppinen2001a, petersen2014a, vähäniitty2003a, alagarsamy2007a, kautz2001a, leih2006a, mishra2008a, svahnberg2013a, tjornehoj2008a, tjørnehøj2010a, pino2009b, gleirscher2014a, habib2008a, aysolmaz2011b, mas2005a, dagnino2014a, casey2002a, kautz2001b, bekkers2012a, kautz2001c, mäkiö2010a, adamonis2005a, wong2006a, gruner2011a, cater2004c, kauppinen2005a, landaeta2008a, balandis2005a, walker2007a, begum2010a, sujaritha2007a, kasurinen2012a, zyl2009a, klendauer2012a, kauppinen2002a, emam2006a, dagnino2014b, pernstål2013a, hjalmarsson2004a, aysolmaz2011c, shen2008a, rasidi2008a, carter2001b, tjørnehøj2008a, suganya2016a, preis2012a, hjalmarsson2004b, gon2012a, bertrand2008a, khdair2009a, sanders2008a, gon2014a, gorschek2006c, arenis2016a, key2016a, kautz2000c, kasurinen2017a, gong2005a, rodríguez2010a, vähäniitty2003b, ayaz2017a, rudzki2011a, curiel2013a, leite2010a, batista2009a, khdair2009a, saikkonen9999a, metodologia2009a, montoni2007b, laru2007a, machado9999a</t>
-  </si>
-  <si>
-    <t>cocozza2014a, mandić2010a, basili2014b, mandić2010g, münch2013c, basili2013a, aversano2016a, ellis2012a, kobori2014b, kobori2014a, aoki2016a, astromskis2014a, ellis2013a, kobori2016a, fernández2011a, tyrväinen2015a, mandić2017a, cocozza2014a, roditi2014a, asghari2012a, papa2015a, dymek2015a, kalidoss2016a, trendowicz2014a, basili2014c, hyvönen2015a, dashkov2017a, münch2013c, petersen2015a, trendowicz2014a</t>
-  </si>
-  <si>
-    <t>niazi2005a, dyba2005a, niazi2005b, abrahamsson2001a, komi2004a, komi2004a, becker2008b, messnarz2012a, messnarz2009a, abrahamsson2007a, emam2001b, spork2008a, rose2008a, kettunen2010a, pries2003a, hrastnik2004a, messnarz2011a, messnarz2006a, messnarz2010a, barafort2011a, messnarz2011b, riel2010b, mccaffery2013a, emam2001c, biró2006a, content2004a, biro1999a, connor2011a, stolfa2017a, messnarz2010b, connor2015a, kreiner2016a, area1999a, barafort2014a, winkler2012a, rose2015a, guzmán9999a, area1999a, messnarz9999a</t>
-  </si>
-  <si>
-    <t>kobori2014a, ardila2013a, tahir2016a, kobori2016a, mandić2017a, asghari2012a, ardila2013b, petersen2015a</t>
-  </si>
-  <si>
-    <t>aoki2016a</t>
-  </si>
-  <si>
-    <t>unterkalmsteiner2016a, staron2016a, gorschek2015a, erukulapati2017a</t>
-  </si>
-  <si>
-    <t>rovegård2008a, wohlin2012a, karlström2005a, taipale2007a, jönsson2005a, jönsson2005b, brenda2013a, jönsson2007a, jönsson2005c, wohlin2012b, wohlin2012c, wohlin2012d, muñoz2014a, wohlin2012e, hjalmarsson2004a, tihinen2006a, mirna2014a, wohlin2012f, ali2013a, wohlin2012g, wohlin2012h, hjalmarsson2004b, ali2012b, ali2010a, wohlin2012i, jönsson2008a, angelis2008a, wohlin2012j, muñoz2016a, schrama2013a</t>
-  </si>
-  <si>
-    <t>vezzetti2014a, cheng2014a, yuen2014a, bekkers2012a, wang2010a, niazi2015a, schillo2017a, liang2016a, serrano2013a, shah2010a, liang2013a, stasytyte2015a, han2012a, west2010a, safaie2017a, choi2014a, herzwurm2015a, alshehri2014a, sanchez2017a, choi2014b, vezzetti2012a, lee2013b, thakurta2016a, thakurta2014a, sanchez2018a, thakurta2015a, wang2012a, alshammari2013a, jeong2013a, aburub2014a, calik2012a, mohamed2015a, rensburg2012a, rodríguez2010a, wang2014a, wang2013a, marrone2017a, suscheck2010a, schockert2017a, stasytyte2015b, robles2016a, choi9999a, calik9999a, imonese2015a, gomes9999a, yilmaz2010a</t>
-  </si>
-  <si>
-    <t>birkhölzer2011b, aleixo2013a, hollauer2017a, teixeira2014a, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>dyba2005a, unterkalmsteiner2012a, staples2008a, walia2009a, cater2006a, mishra2009a, cater2001a, ba2009a, weerd2010a, basri2010a, richardson2001a, cater2004b, weerd2009a, ferreira2011a, visconti2002a, napier2008a, richardson2002a, santos2009a, kandt2003a, walia2007a, vasconcellos2017a, jedlitschka2004a, ba2008a, butt2008a, cater2005a, walia2009b, ferreira2010a, cheng2009a, halloran2004a, basri2010b, hernández2010a, santana2007a, aguiar2008a, roggio2000a, tagra2009a, fröhlich2001a, taipale2005a, utulu2013a, cater2006b, alexandre2003a, santana2008a, richardson2002b, donkin2002a, cater2006c, chaurasia2015a, niazi2018a, aguiar2008a, sampaio2010a, ferreira2011b, mcloughlin2010a, trienekens2004a, trienekens2005a, unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>lepmets2016b, arnold2016a, kruger2016a, oConnor2015a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010b, deshpande2012a, cervantes2016a, cervantes2012a, kroll2014a, mcloughlin2010b</t>
-  </si>
-  <si>
-    <t>ponisio2012a, ponisio2011a, cervantes2016a</t>
-  </si>
-  <si>
-    <t>becker2008a, becker2008b, yihong2012a, fruehwirth2010a, cancian2010a, wong2006a, shah2010a, leba2012a, sharma2011a, lorentz2009a, sun2010a</t>
-  </si>
-  <si>
-    <t>becker2008a, becker2008b</t>
-  </si>
-  <si>
-    <t>basili2009a, damiani2008a, aversano2016a, mandić2010c, ellis2012a, mulazzani2009a, samtani2012a, kelanti2013a, álvarez2015a, samtani2012b, quintero2012a, aoki2016a, mandić2010f, ellis2013a, heidrich2009a, hyysalo2014a, münch2012b, kobori2016a, münch2012c, ellis2013b, texel2015a, molina2012a, münch2009a, ahmad2016a, texel2013a, mandić2017a, mulazzani2009b, aoki2017a, roditi2014a, asghari2012a, pérez2017a, becker2014a, papa2015a, aarts2016a, cahyaningsih2014a, jayatilleke2017a, mandic2012a, lindqvist2016a, mughal2017a, kramer2014a, mulazzani2009c, monden2017a, nagel2015a, casare2012a, cervantes2016a, cervantes2012a, santo2015a, aarts2016a, chaos9999a, pinto9999a, basili2010a, cocozza2014a, mandić2010b, mandić2010d, petersen2015a</t>
-  </si>
-  <si>
-    <t>oliveira2018a</t>
-  </si>
-  <si>
-    <t>münch2013a, fagerholm2014a, fagerholm2017a, kobori2014b, kobori2014a, kettunen2015a, kobori2016a, trinkenreich2017a, lópez2016a, mandić2017a, roditi2014a, kettunen2016a, watanabe2017a, Hekkala2011a, raju2014a, ammala2015a, raju2014a, petersen2015a</t>
-  </si>
-  <si>
-    <t>lópez2016a, mandić2017a, hooge2016a, trinkenreich2017b, chagas2016a, petersen2015a</t>
-  </si>
-  <si>
-    <t>barreto2010a, münch2013e, amannejad2014a, sarcia2010a, harjumaa2008a, damiani2008a, ramler2010a, mandić2010c, caputo2010a, umarji2009b, kowalczyk2014a, danovaro2008a, fabijan2016a, cedergren2014a, yang2010a, przybylek2011a, uchida2016a, mandić2010f, buglione2011a, garousi2012a, barreto2009a, bennicke2008a, kowalczyk2013a, thammarak2011a, hernández2010a, guinea2013a, janes2014a, münch2009a, mandić2010e, mandić2017a, heidrich2012a, teles2014a, armbrust2007a, júnior2010a, mitre2014a, tsunoda2011a, mandic2012a, marcos2017a, watanabe2017a, janes2014b, machado2016a, ferreira2018a, thammarak2013a, mitrehernández2014a, moraes2017a, katopodis2015a, debruyn2014a, ferreira2014a, cansado2012a, bóka2009a, trinkenreich2015b, montebelo2008a, pimentel2016a, pinho2010a, dashkov2017a, rocha2009a, papazov9999a, cansado9999a, voigt9999a, marcos2017b, trinkenreich2015b, pimentel2016a, pinto9999a, rivera9999a, rocha2009a, kaneko2011a, kowalczyk2010a, mandić2010b, unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2014b, monden2012a, kobori2014a, shimura2017a, alves2014a, ellis2013a, kobori2016a, lópez2016a, mandić2017a, jaramillo2016a, heidrich2012a, asghari2012a, zapata2017a, brehm2014a, trendowicz2014a</t>
-  </si>
-  <si>
-    <t>albuquerque2009a, martinez2011a, martínez2013a, martins2009a, martínez2013b, martins2007a, martins2010a, albuquerque2010a, albuquerque2009b, martins2016a, lang2011a, lang2011b, martins2008a</t>
-  </si>
-  <si>
-    <t>zhu2010a, dounos2010a, liu2009a, kettunen2009b, cohen2008a, wang2013b, ye2010a, rodríguez2010a, cuervo9999a, mcloughlin2010a, sun2010a</t>
-  </si>
-  <si>
-    <t>bjarnason2013a, ramos2015a, valenciennes2013a, jürisoo2017a</t>
-  </si>
-  <si>
-    <t>el2010a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, kowalczyk2013a, heidrich2012a, chagas2016a, münch2013c</t>
-  </si>
-  <si>
-    <t>kwak2006a, aboelmaged2010a, unterkalmsteiner2012a, subramanian2007a, nonthaleerak2006a, wu2006a, tjahjono2010a, tang2007a, mahanti2005a, anbari2004a, siviy2007a, mahanti2009a, kundu2012a, wang2005b, mahanti2006a, jiang2011a, knowles2011a, brady2005a, garcia2009a, antoniol2004a, kundu2012b, patel2009a, li2008a, patyal2015a, bahli2004a, zhang2008c, landaeta2008a, asato2011a, bubevski2014a, müller2012a, besseris2010a, kundu2016a, cheng2009a, wandersman2012a, rico2010a, el2011a, barcellos2008b, el2013a, unterkalmsteiner2010a, wang2005c, chen2007b, deng2015a, daubner2008a, rico9999a, choi2006a, khan2016a, dalipi2012a, nyambegera2014a, islam2009a, strate2013a, el2010b, zhang9999a, tong2009a, paruchuri2009a, manohar9999a, manohar9999a, sharma2012a, tse2005a, bubevski2016a, u2018a, chen2007c, al2018a, sharma2017a, simmons2010a, mahanti2014a, cerdeiral2017a, quintella2017a, barcellos9999a, mayoral2012a, andrade9999a, sun2012a, tonini2006a, quintella9999a, caivano9999a, horizonte2017a, unterkalmsteiner2014a, wang2005a</t>
-  </si>
-  <si>
-    <t>fagerholm2014a, mandić2010b, fagerholm2017a, lindgren2015a, heidrich2008a, papa2012a, lindgren2016a, mandić2010d, olsina2011b, luo2016a, kowalczyk2014a, dumke2009a, mandić2010f, ta2015a, münch2012b, kelemen2014a, dumke2014a, dumke2013a, münch2009a, valle2017a, papa2016a, heidrich2010a, luo2015a, roditi2014a, ciolkowski2008a, becker2014a, papa2012b, papa2015a, mandic2012a, cuadrado2010a, sadabadi2016a, sakul2017a, lindgren2015b, kowalczyk2010a, münch2013a</t>
-  </si>
-  <si>
     <t>selected forward list</t>
   </si>
   <si>
+    <t>mcloughlin2010a, trienekens2004a, trienekens2005a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>unterkalmsteiner2014a, wang2005a</t>
+  </si>
+  <si>
+    <t>becker2008a, becker2008b, sun2010a</t>
+  </si>
+  <si>
+    <t>mcloughlin2010a, sun2010a</t>
+  </si>
+  <si>
+    <t>basili2010a, cocozza2014a, mandić2010b, mandić2010d, petersen2015a</t>
+  </si>
+  <si>
+    <t>mandić2010b, mandić2010d, kowalczyk2010a, münch2013a</t>
+  </si>
+  <si>
+    <t>barreto2010a, kaneko2011a, kowalczyk2010a, mandić2010b, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>albuquerque2009a, martins2008a</t>
+  </si>
+  <si>
+    <t>armbrust2010a, armbrust2010b, barreto2010a, armbrust2010b, sun2010a</t>
+  </si>
+  <si>
+    <t>kaneko2011a, münch2013c</t>
+  </si>
+  <si>
     <t>guzmán2010a, cocozza2014a, mandić2010a, mandić2010b, mandić2010d, münch2013a, münch2013c, petersen2015a, trendowicz2011a, trendowicz2014a, unterkalmsteiner2014a</t>
   </si>
   <si>
-    <t>armbrust2010a, armbrust2010b, barreto2010a, armbrust2010b, sun2010a</t>
+    <t>mcloughlin2010b, mcloughlin2010b</t>
   </si>
   <si>
     <t>cocozza2014a, mandić2010a, münch2013c, cocozza2014a, trendowicz2014a, münch2013c, petersen2015a, trendowicz2014a</t>
   </si>
   <si>
-    <t>mcloughlin2010a, trienekens2004a, trienekens2005a, unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010b, mcloughlin2010b</t>
-  </si>
-  <si>
-    <t>becker2008a, becker2008b, sun2010a</t>
-  </si>
-  <si>
-    <t>basili2010a, cocozza2014a, mandić2010b, mandić2010d, petersen2015a</t>
+    <t>petersen2015a, trendowicz2014a</t>
   </si>
   <si>
     <t>münch2013a, petersen2015a</t>
   </si>
   <si>
-    <t>barreto2010a, kaneko2011a, kowalczyk2010a, mandić2010b, unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>petersen2015a, trendowicz2014a</t>
-  </si>
-  <si>
-    <t>albuquerque2009a, martins2008a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010a, sun2010a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, münch2013c</t>
-  </si>
-  <si>
-    <t>unterkalmsteiner2014a, wang2005a</t>
-  </si>
-  <si>
-    <t>mandić2010b, mandić2010d, kowalczyk2010a, münch2013a</t>
-  </si>
-  <si>
     <t>Step 1</t>
   </si>
   <si>
-    <t>liu2005a, mccoy1998a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, basili2010a, mandić2010b, mandić2010d, basili2007a, münch2013c, münch2013a, trendowicz2011a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2007b, kowalczyk2010a</t>
+    <t>trienekens2004a, trienekens2005a, mcloughlin2010a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>wang2005a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>sun2010a, mcloughlin2010a</t>
+  </si>
+  <si>
+    <t>basili2010a, mandić2010d, mandić2010b, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a, mandić2010d, mandić2010b, münch2013a</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a, barreto2010a, mandić2010b, kaneko2011a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>martins2008a, albuquerque2009a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2005a, sun2010a, barreto2010a, armbrust2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2007b, kaneko2011a, münch2013c</t>
+  </si>
+  <si>
+    <t>basili2007b, becker2008b</t>
+  </si>
+  <si>
+    <t>becker2008b, birkhölzer2011a</t>
   </si>
   <si>
     <t>trienekens2009a, basili2010a</t>
   </si>
   <si>
-    <t>petersen2015a, guzmán2010a, mandić2010a, mandić2010b, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a</t>
+    <t>basili2007a, guzmán2010a, mandić2010d, mandić2010a, mandić2010b, trendowicz2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, unterkalmsteiner2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2007c, basili2010a, petersen2015a</t>
+  </si>
+  <si>
+    <t>debou2000a, liu2006a, mcloughlin2010b</t>
   </si>
   <si>
     <t>basili2010a, mandić2010b, trendowicz2014a</t>
   </si>
   <si>
-    <t>barreto2010a, messnarz1999a, sun2010a, armbrust2010a, liu2005a, mccoy1998a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, mandić2010a, cocozza2014a, basili2007a, trendowicz2014a, münch2013c, basili2007b, basili2007c</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, basili2007a, basili2007c</t>
-  </si>
-  <si>
-    <t>basili2010a, mandić2010b, basili2007a</t>
-  </si>
-  <si>
-    <t>basili2010a, debou2000a, basili2007b, murugappan2003a</t>
-  </si>
-  <si>
-    <t>becker2008b, liu2005a, liu2006a</t>
-  </si>
-  <si>
-    <t>becker2008b, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>trienekens2005a, unterkalmsteiner2014a, mcloughlin2010a, trienekens2004a</t>
-  </si>
-  <si>
-    <t>debou2000a, mcloughlin2010b, liu2006a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, mandić2010b, mandić2010d, cocozza2014a</t>
+    <t>basili2007a, basili2007c, basili2007b, basili2010a, mandić2010a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2010a, trendowicz2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2007b, kowalczyk2010a, petersen2015a</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a, basili2010a, mandić2010b, münch2013a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2010a, münch2013c, petersen2015a</t>
   </si>
   <si>
     <t>basili2010a, mandić2010a, mandić2010b, trendowicz2011a</t>
   </si>
   <si>
-    <t>petersen2015a, basili2010a, mandić2010b, münch2013a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, münch2013c, basili2007c</t>
-  </si>
-  <si>
-    <t>kaneko2011a, barreto2010a, mandić2010b, unterkalmsteiner2014a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, trendowicz2014a</t>
-  </si>
-  <si>
-    <t>martins2008a, albuquerque2009a</t>
-  </si>
-  <si>
-    <t>sun2010a, mcloughlin2010a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, münch2013c, basili2007b, basili2007c</t>
-  </si>
-  <si>
-    <t>wang2005a, unterkalmsteiner2014a</t>
-  </si>
-  <si>
-    <t>mandić2010b, mandić2010d, münch2013a, kowalczyk2010a</t>
+    <t>basili2007a, basili2010a, mandić2010b</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007b, basili2010a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2010a, mandić2010d, mandić2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a</t>
   </si>
   <si>
     <t>Step 2</t>
   </si>
   <si>
+    <t>messnarz1999a, liu2005a, sun2010a, barreto2010a, armbrust2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>mccoy1998a, liu2005a, sun2010a, barreto2010a, armbrust2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>murugappan2003a, liu2006a, basili2007b, basili2010a, mcloughlin2010b</t>
+  </si>
+  <si>
+    <t>debou2000a, basili2007b, basili2010a</t>
+  </si>
+  <si>
+    <t>trienekens2005a, mcloughlin2010a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, mcloughlin2010a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2006a, barreto2010a, armbrust2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>debou2000a, liu2005a, becker2008b, mcloughlin2010b</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2007b, guzmán2010a, mandić2010a, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2007b, basili2010a, mandić2010a, kaneko2011a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007a, basili2007c, becker2008b, basili2010a, mandić2010a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
     <t>becker2008b, sun2010a</t>
   </si>
   <si>
-    <t>guzmán2010a, mandić2010a, cocozza2014a, unterkalmsteiner2014a, trendowicz2014a, basili2007b, kowalczyk2010a, basili2007c</t>
-  </si>
-  <si>
-    <t>barreto2010a, basili2010a, mandić2010b, mandić2010d, unterkalmsteiner2014a, basili2007a, münch2013c, münch2013a, trendowicz2011a, basili2007c</t>
-  </si>
-  <si>
-    <t>kaneko2011a, mandić2010b, messnarz1999a, unterkalmsteiner2014a, sun2010a, armbrust2010a, liu2005a, mccoy1998a, armbrust2010b, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>petersen2015a, mandić2010a, mandić2010b, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, trienekens2009a, debou2000a, basili2007b, kowalczyk2010a, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>petersen2015a, guzmán2010a, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, münch2013c, münch2013a, basili2007b, trendowicz2011a, basili2007c</t>
-  </si>
-  <si>
-    <t>unterkalmsteiner2014a, mcloughlin2010a, trienekens2004a</t>
-  </si>
-  <si>
-    <t>becker2008a, basili2007b, liu2006a, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, barreto2010a, guzmán2010a, mandić2010d, unterkalmsteiner2014a, münch2013a, trendowicz2011a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>barreto2010a, sun2010a, armbrust2010a, liu2005a, mccoy1998a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>kaneko2011a, guzmán2010a, mandić2010a, mandić2010b, cocozza2014a, unterkalmsteiner2014a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>petersen2015a, guzmán2010a, mandić2010a, mandić2010d, unterkalmsteiner2014a, trendowicz2014a, münch2013c, münch2013a, basili2007b, trendowicz2011a, basili2007c</t>
-  </si>
-  <si>
-    <t>petersen2015a, kaneko2011a, barreto2010a, guzmán2010a, wang2005a, mandić2010a, trienekens2005a, mandić2010b, mandić2010d, cocozza2014a, mcloughlin2010a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a, trienekens2004a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>becker2008a, barreto2010a, messnarz1999a, armbrust2010a, mcloughlin2010a, mccoy1998a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>barreto2010a, messnarz1999a, sun2010a, liu2005a, mccoy1998a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>basili2010a, mcloughlin2010b, basili2007b, liu2006a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>trienekens2005a, unterkalmsteiner2014a, sun2010a, trienekens2004a</t>
-  </si>
-  <si>
-    <t>barreto2010a, messnarz1999a, armbrust2010a, mccoy1998a, armbrust2010b, liu2006a</t>
-  </si>
-  <si>
-    <t>barreto2010a, messnarz1999a, sun2010a, armbrust2010a, liu2005a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>kaneko2011a, guzmán2010a, mandić2010a, unterkalmsteiner2014a, trendowicz2014a, münch2013c, münch2013a, basili2007b, trendowicz2011a, basili2007c</t>
-  </si>
-  <si>
-    <t>petersen2015a, guzmán2010a, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, münch2013c, münch2013a, basili2007b, basili2007c</t>
-  </si>
-  <si>
-    <t>kaneko2011a, guzmán2010a, mandić2010a, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, trendowicz2014a, basili2007b, trendowicz2011a, basili2007c</t>
-  </si>
-  <si>
-    <t>kaneko2011a, guzmán2010a, mandić2010a, mandić2010b, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, trendowicz2014a, trendowicz2011a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, mandić2010a, becker2008b, cocozza2014a, debou2000a, basili2007a, trendowicz2014a, münch2013c, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>kaneko2011a, guzmán2010a, mandić2010a, mandić2010b, mandić2010d, cocozza2014a, unterkalmsteiner2014a, basili2007a, münch2013c, münch2013a</t>
-  </si>
-  <si>
-    <t>barreto2010a, messnarz1999a, sun2010a, armbrust2010a, liu2005a, mccoy1998a</t>
-  </si>
-  <si>
-    <t>becker2008b, debou2000a, mcloughlin2010b, liu2005a</t>
-  </si>
-  <si>
-    <t>trienekens2005a, unterkalmsteiner2014a, mcloughlin2010a</t>
-  </si>
-  <si>
-    <t>petersen2015a, barreto2010a, basili2010a, mandić2010b, mandić2010d, unterkalmsteiner2014a, münch2013a</t>
-  </si>
-  <si>
-    <t>basili2010a, debou2000a, basili2007b</t>
-  </si>
-  <si>
-    <t>petersen2015a, kaneko2011a, basili2010a, mandić2010a, cocozza2014a, basili2007a, trendowicz2014a, münch2013c, basili2007b</t>
+    <t>liu2006a, basili2007b, becker2008a, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>barreto2010a, basili2010a, mandić2010d, mandić2010b, münch2013a, unterkalmsteiner2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, becker2008a, barreto2010a, armbrust2010a, mcloughlin2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2005a, kowalczyk2010a, sun2010a, armbrust2010a, mandić2010b, armbrust2010b, kaneko2011a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2005a, sun2010a, barreto2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>basili2007a, mandić2010d, mandić2010a, mandić2010b, trendowicz2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, unterkalmsteiner2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007c, basili2007b, trienekens2009a, kowalczyk2010a, kaneko2011a</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a, guzmán2010a, mandić2010a, mandić2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, sun2010a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2007c, basili2007b, guzmán2010a, mandić2010d, trendowicz2011a, münch2013c, münch2013a, cocozza2014a, unterkalmsteiner2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a, barreto2010a, guzmán2010a, mandić2010d, trendowicz2011a, kaneko2011a, münch2013a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2005a, sun2010a, barreto2010a, armbrust2010a</t>
+  </si>
+  <si>
+    <t>basili2007a, guzmán2010a, mandić2010d, mandić2010a, mandić2010b, kaneko2011a, münch2013c, münch2013a, cocozza2014a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2007c, barreto2010a, basili2010a, mandić2010d, mandić2010b, trendowicz2011a, münch2013c, münch2013a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2007c, basili2007b, guzmán2010a, mandić2010d, mandić2010a, trendowicz2011a, kaneko2011a, trendowicz2014a, cocozza2014a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>basili2007a, kowalczyk2010a, guzmán2010a, mandić2010d, mandić2010a, mandić2010b, trendowicz2011a, kaneko2011a, trendowicz2014a, cocozza2014a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>basili2007a, basili2007c, basili2007b, guzmán2010a, mandić2010d, münch2013c, münch2013a, cocozza2014a, unterkalmsteiner2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2007b, guzmán2010a, mandić2010d, mandić2010a, trendowicz2011a, münch2013c, münch2013a, trendowicz2014a, unterkalmsteiner2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, wang2005a, basili2007a, kowalczyk2010a, barreto2010a, guzmán2010a, mandić2010d, mcloughlin2010a, mandić2010a, mandić2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2007c, basili2007b, kowalczyk2010a, guzmán2010a, mandić2010a, trendowicz2014a, cocozza2014a, unterkalmsteiner2014a</t>
   </si>
   <si>
     <t>Step 3</t>
   </si>
   <si>
-    <t>barreto2010a, messnarz1999a, armbrust2010a, armbrust2010b, liu2006a</t>
-  </si>
-  <si>
-    <t>barreto2010a, trienekens2009a, debou2000a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>guzmán2010a, mandić2010a, becker2008b, cocozza2014a, debou2000a, trendowicz2014a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>becker2008a, petersen2015a, basili2010a, mandić2010a, cocozza2014a, debou2000a, basili2007a, trendowicz2014a, münch2013c, liu2006a, birkhölzer2011a, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>kaneko2011a, debou2000a, basili2007b, kowalczyk2010a, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>barreto2010a, wang2005a, trienekens2005a, mcloughlin2010a, trienekens2004a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, barreto2010a, trienekens2009a, debou2000a, kowalczyk2010a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, mandić2010b, unterkalmsteiner2014a, mcloughlin2010a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, becker2008b, debou2000a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, debou2000a, basili2007b, murugappan2003a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, becker2008b, mcloughlin2010b, liu2006a, basili2007c</t>
-  </si>
-  <si>
-    <t>debou2000a, mcloughlin2010b, basili2007b, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>becker2008a, basili2007b, liu2006a</t>
-  </si>
-  <si>
-    <t>petersen2015a, kaneko2011a, barreto2010a, guzmán2010a, wang2005a, mandić2010a, mandić2010b, mandić2010d, cocozza2014a, sun2010a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>basili2010a, becker2008b, liu2005a, basili2007b, murugappan2003a</t>
-  </si>
-  <si>
-    <t>mcloughlin2010a, basili2007b, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>basili2007b, liu2006a, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>barreto2010a, trienekens2009a, debou2000a, kowalczyk2010a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>guzmán2010a, wang2005a, trienekens2005a, messnarz1999a, mandić2010d, sun2010a, armbrust2010a, mcloughlin2010a, liu2005a, mccoy1998a, münch2013a, trendowicz2011a, armbrust2010b, trienekens2004a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, debou2000a, basili2007b, kowalczyk2010a, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>becker2008a, barreto2010a, trienekens2005a, messnarz1999a, unterkalmsteiner2014a, armbrust2010a, mccoy1998a, armbrust2010b, trienekens2004a</t>
-  </si>
-  <si>
-    <t>guzmán2010a, mandić2010a, becker2008b, cocozza2014a, debou2000a, basili2007a, trendowicz2014a, trendowicz2011a, murugappan2003a</t>
-  </si>
-  <si>
-    <t>petersen2015a, kaneko2011a, barreto2010a, guzmán2010a, mandić2010a, trienekens2005a, mandić2010b, mandić2010d, cocozza2014a, mcloughlin2010a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a, trienekens2004a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>barreto2010a, guzmán2010a, unterkalmsteiner2014a, trendowicz2011a</t>
+    <t>liu2006a, basili2007b, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>wang2005a, basili2007a, kowalczyk2010a, sun2010a, barreto2010a, guzmán2010a, mandić2010d, mandić2010a, mandić2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, basili2007a, kowalczyk2010a, barreto2010a, guzmán2010a, mandić2010d, mcloughlin2010a, mandić2010a, mandić2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>basili2007b, mcloughlin2010a, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, trienekens2004a, trienekens2005a, becker2008a, barreto2010a, armbrust2010a, armbrust2010b, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, trienekens2009a, kowalczyk2010a, barreto2010a</t>
+  </si>
+  <si>
+    <t>barreto2010a, guzmán2010a, trendowicz2011a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, trienekens2004a, trienekens2005a, wang2005a, liu2005a, sun2010a, armbrust2010a, guzmán2010a, mandić2010d, mcloughlin2010a, armbrust2010b, trendowicz2011a, münch2013a</t>
+  </si>
+  <si>
+    <t>messnarz1999a, liu2006a, barreto2010a, armbrust2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>kowalczyk2010a, mcloughlin2010a, mandić2010b, kaneko2011a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007a, becker2008b, guzmán2010a, mandić2010a, trendowicz2011a, trendowicz2014a, cocozza2014a</t>
+  </si>
+  <si>
+    <t>debou2000a, basili2007b, mcloughlin2010b, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, liu2006a, basili2007a, basili2007c, becker2008a, basili2010a, mandić2010a, birkhölzer2011a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>liu2006a, basili2007b, becker2008a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007c, basili2007b, kowalczyk2010a, kaneko2011a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, wang2005a, barreto2010a, mcloughlin2010a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007b, trienekens2009a</t>
+  </si>
+  <si>
+    <t>murugappan2003a, liu2005a, basili2007b, becker2008b, basili2010a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, trienekens2009a, kowalczyk2010a, barreto2010a, kaneko2011a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, becker2008b, trienekens2009a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007c, basili2007b, trienekens2009a, kowalczyk2010a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, becker2008b, guzmán2010a, mandić2010a, trendowicz2014a, cocozza2014a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, trienekens2009a, barreto2010a</t>
+  </si>
+  <si>
+    <t>liu2006a, basili2007c, becker2008b, trienekens2009a, mcloughlin2010b</t>
   </si>
   <si>
     <t>Step 4</t>
   </si>
   <si>
-    <t>wang2005a, trienekens2005a, becker2008b, mcloughlin2010a, trienekens2004a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, wang2005a, trienekens2005a, messnarz1999a, sun2010a, armbrust2010a, mcloughlin2010a, liu2005a, mccoy1998a, armbrust2010b, trienekens2004a</t>
-  </si>
-  <si>
-    <t>guzmán2010a, wang2005a, trienekens2005a, mandić2010d, mcloughlin2010a, münch2013a, trendowicz2011a, trienekens2004a</t>
-  </si>
-  <si>
-    <t>becker2008b, mcloughlin2010b, liu2006a</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, mandić2010a, cocozza2014a, debou2000a, mcloughlin2010b, basili2007a, trendowicz2014a, münch2013c, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>wang2005a, trienekens2005a, messnarz1999a, sun2010a, armbrust2010a, mcloughlin2010a, liu2005a, mccoy1998a, armbrust2010b, trienekens2004a</t>
-  </si>
-  <si>
-    <t>messnarz1999a, sun2010a, armbrust2010a, liu2005a, mccoy1998a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>kaneko2011a, trienekens2005a, mandić2010b, unterkalmsteiner2014a, trienekens2004a, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, becker2008b, liu2005a, basili2007c</t>
-  </si>
-  <si>
-    <t>becker2008a, petersen2015a, kaneko2011a, barreto2010a, guzmán2010a, wang2005a, mandić2010a, mandić2010b, messnarz1999a, mandić2010d, cocozza2014a, armbrust2010a, mccoy1998a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a, armbrust2010b, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>kaneko2011a, mandić2010b, unterkalmsteiner2014a, debou2000a, mcloughlin2010b, kowalczyk2010a</t>
-  </si>
-  <si>
-    <t>becker2008a, trienekens2009a, mcloughlin2010b, liu2006a, birkhölzer2011a</t>
-  </si>
-  <si>
-    <t>basili2010a, basili2007b, birkhölzer2011a, murugappan2003a</t>
+    <t>liu2005a, basili2007c, becker2008b, trienekens2009a</t>
+  </si>
+  <si>
+    <t>debou2000a, kowalczyk2010a, mcloughlin2010b, mandić2010b, kaneko2011a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>murugappan2003a, basili2007b, basili2010a, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, wang2005a, becker2008b, mcloughlin2010a</t>
+  </si>
+  <si>
+    <t>liu2006a, becker2008a, trienekens2009a, mcloughlin2010b, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>debou2000a, murugappan2003a, basili2007a, basili2007c, basili2010a, mcloughlin2010b, mandić2010a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, trienekens2004a, trienekens2005a, wang2005a, liu2005a, trienekens2009a, sun2010a, armbrust2010a, mcloughlin2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, kowalczyk2010a, mandić2010b, kaneko2011a, unterkalmsteiner2014a</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, wang2005a, guzmán2010a, mandić2010d, mcloughlin2010a, trendowicz2011a, münch2013a</t>
+  </si>
+  <si>
+    <t>liu2006a, becker2008b, mcloughlin2010b</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, wang2005a, basili2007a, becker2008a, kowalczyk2010a, barreto2010a, armbrust2010a, guzmán2010a, mandić2010d, mandić2010a, mandić2010b, armbrust2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, trienekens2004a, trienekens2005a, wang2005a, liu2005a, sun2010a, armbrust2010a, mcloughlin2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2005a, sun2010a, armbrust2010a, armbrust2010b</t>
   </si>
   <si>
     <t>Step 5</t>
   </si>
   <si>
-    <t>messnarz1999a, sun2010a, armbrust2010a, mcloughlin2010b, liu2005a, mccoy1998a, armbrust2010b, liu2006a</t>
-  </si>
-  <si>
-    <t>becker2008a, mcloughlin2010b, liu2006a, birkhölzer2011a</t>
+    <t>mccoy1998a, messnarz1999a, becker2008a, armbrust2010a, armbrust2010b</t>
+  </si>
+  <si>
+    <t>murugappan2003a, trienekens2004a, trienekens2005a, basili2007a, basili2007c, basili2010a, mandić2010a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>wang2005a, basili2007a, kowalczyk2010a, guzmán2010a, mandić2010d, mandić2010a, mandić2010b, trendowicz2011a, kaneko2011a, münch2013c, münch2013a, trendowicz2014a, cocozza2014a, petersen2015a</t>
+  </si>
+  <si>
+    <t>mccoy1998a, messnarz1999a, liu2005a, liu2006a, sun2010a, armbrust2010a, mcloughlin2010b, armbrust2010b</t>
+  </si>
+  <si>
+    <t>trienekens2004a, trienekens2005a, wang2005a, guzmán2010a, mandić2010d, trendowicz2011a, münch2013a</t>
+  </si>
+  <si>
+    <t>liu2006a, becker2008a, mcloughlin2010b, birkhölzer2011a</t>
+  </si>
+  <si>
+    <t>murugappan2003a, basili2007a, basili2007c, basili2010a, mandić2010a, münch2013c, trendowicz2014a, cocozza2014a, petersen2015a</t>
   </si>
   <si>
     <t>trienekens2009a, mcloughlin2010b</t>
   </si>
   <si>
-    <t>guzmán2010a, wang2005a, trienekens2005a, mandić2010d, münch2013a, trendowicz2011a, trienekens2004a</t>
+    <t>basili2007c, trienekens2009a, birkhölzer2011a</t>
   </si>
   <si>
     <t>becker2008a, birkhölzer2011a</t>
   </si>
   <si>
-    <t>petersen2015a, basili2010a, mandić2010a, cocozza2014a, basili2007a, trendowicz2014a, münch2013c, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>becker2008a, messnarz1999a, armbrust2010a, mccoy1998a, armbrust2010b</t>
-  </si>
-  <si>
-    <t>trienekens2009a, birkhölzer2011a, basili2007c</t>
-  </si>
-  <si>
-    <t>petersen2015a, basili2010a, mandić2010a, trienekens2005a, cocozza2014a, basili2007a, trendowicz2014a, münch2013c, trienekens2004a, murugappan2003a, basili2007c</t>
-  </si>
-  <si>
-    <t>petersen2015a, kaneko2011a, guzmán2010a, wang2005a, mandić2010a, mandić2010b, mandić2010d, cocozza2014a, basili2007a, trendowicz2014a, münch2013c, münch2013a, trendowicz2011a, kowalczyk2010a</t>
-  </si>
-  <si>
     <t>Step 6</t>
   </si>
   <si>
-    <t>guzmán2010a, wang2005a, mandić2010d, münch2013a, trendowicz2011a</t>
-  </si>
-  <si>
-    <t>trienekens2009a, basili2007c</t>
+    <t>wang2005a, guzmán2010a, mandić2010d, trendowicz2011a, münch2013a</t>
+  </si>
+  <si>
+    <t>basili2007c, trienekens2009a</t>
   </si>
   <si>
     <t>Step 7</t>
   </si>
   <si>
     <t>Step 8</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Step 13</t>
   </si>
 </sst>
 </file>
@@ -1454,13 +1466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1521,8 +1533,23 @@
       <c r="U1" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1566,28 +1593,43 @@
         <v>246</v>
       </c>
       <c r="O2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U2" t="s">
         <v>359</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="W2" t="s">
+        <v>361</v>
+      </c>
+      <c r="X2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1598,31 +1640,37 @@
         <v>53</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1633,16 +1681,16 @@
         <v>54</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1653,11 +1701,17 @@
       <c r="J4" t="s">
         <v>112</v>
       </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
       <c r="L4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1668,58 +1722,55 @@
         <v>55</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>113</v>
       </c>
-      <c r="K5" t="s">
-        <v>162</v>
-      </c>
       <c r="L5" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="M5" t="s">
+        <v>183</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="O5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="R5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="T5" t="s">
-        <v>357</v>
-      </c>
-      <c r="U5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1730,52 +1781,52 @@
         <v>56</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>248</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P6" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="Q6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="R6" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="S6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>349</v>
+      </c>
+      <c r="T6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1786,52 +1837,37 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
-      </c>
-      <c r="O7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>333</v>
-      </c>
-      <c r="R7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1842,49 +1878,31 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
-      </c>
-      <c r="N8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" t="s">
-        <v>277</v>
-      </c>
-      <c r="P8" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>334</v>
-      </c>
-      <c r="R8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1895,58 +1913,52 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>275</v>
       </c>
       <c r="P9" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Q9" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="R9" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="S9" t="s">
-        <v>335</v>
-      </c>
-      <c r="T9" t="s">
-        <v>338</v>
-      </c>
-      <c r="U9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1957,55 +1969,31 @@
         <v>60</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" t="s">
-        <v>250</v>
-      </c>
-      <c r="O10" t="s">
-        <v>278</v>
-      </c>
-      <c r="P10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>312</v>
-      </c>
-      <c r="R10" t="s">
-        <v>335</v>
-      </c>
-      <c r="S10" t="s">
-        <v>338</v>
-      </c>
-      <c r="T10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2016,55 +2004,37 @@
         <v>61</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>190</v>
-      </c>
-      <c r="M11" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
-      </c>
-      <c r="O11" t="s">
-        <v>279</v>
-      </c>
-      <c r="P11" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>335</v>
-      </c>
-      <c r="R11" t="s">
-        <v>338</v>
-      </c>
-      <c r="S11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2075,37 +2045,52 @@
         <v>62</v>
       </c>
       <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>77</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>37</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>55</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>248</v>
+      </c>
+      <c r="O12" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>329</v>
+      </c>
+      <c r="R12" t="s">
+        <v>343</v>
+      </c>
+      <c r="S12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2116,55 +2101,55 @@
         <v>63</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="P13" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q13" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="R13" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="S13" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="T13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2175,40 +2160,55 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="L14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N14" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>278</v>
+      </c>
+      <c r="P14" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>307</v>
+      </c>
+      <c r="R14" t="s">
+        <v>331</v>
+      </c>
+      <c r="S14" t="s">
+        <v>345</v>
+      </c>
+      <c r="T14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2219,37 +2219,55 @@
         <v>65</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
       </c>
       <c r="L15" t="s">
-        <v>194</v>
-      </c>
-      <c r="M15" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>308</v>
+      </c>
+      <c r="R15" t="s">
+        <v>329</v>
+      </c>
+      <c r="S15" t="s">
+        <v>343</v>
+      </c>
+      <c r="T15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2260,40 +2278,55 @@
         <v>66</v>
       </c>
       <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>27</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K16" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="M16" t="s">
+        <v>233</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>279</v>
+      </c>
+      <c r="P16" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>332</v>
+      </c>
+      <c r="R16" t="s">
+        <v>346</v>
+      </c>
+      <c r="S16" t="s">
+        <v>356</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2304,37 +2337,52 @@
         <v>67</v>
       </c>
       <c r="D17">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>15</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="M17" t="s">
+        <v>234</v>
       </c>
       <c r="N17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>249</v>
+      </c>
+      <c r="O17" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>333</v>
+      </c>
+      <c r="R17" t="s">
+        <v>347</v>
+      </c>
+      <c r="S17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2345,55 +2393,31 @@
         <v>68</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" t="s">
-        <v>280</v>
-      </c>
-      <c r="P18" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>332</v>
-      </c>
-      <c r="R18" t="s">
-        <v>346</v>
-      </c>
-      <c r="S18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2404,55 +2428,52 @@
         <v>69</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="M19" t="s">
+        <v>235</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="O19" t="s">
         <v>281</v>
       </c>
       <c r="P19" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="Q19" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="R19" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="S19" t="s">
-        <v>352</v>
-      </c>
-      <c r="T19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2463,31 +2484,52 @@
         <v>70</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>198</v>
+      </c>
+      <c r="M20" t="s">
+        <v>236</v>
+      </c>
+      <c r="N20" t="s">
+        <v>251</v>
+      </c>
+      <c r="O20" t="s">
+        <v>282</v>
+      </c>
+      <c r="P20" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>325</v>
+      </c>
+      <c r="R20" t="s">
+        <v>342</v>
+      </c>
+      <c r="S20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2498,55 +2540,46 @@
         <v>71</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I21">
         <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
-      </c>
-      <c r="K21" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q21" t="s">
-        <v>336</v>
-      </c>
-      <c r="R21" t="s">
-        <v>349</v>
-      </c>
-      <c r="S21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2557,37 +2590,37 @@
         <v>72</v>
       </c>
       <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="M22" t="s">
+        <v>238</v>
       </c>
       <c r="N22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2598,31 +2631,58 @@
         <v>73</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="K23" t="s">
+        <v>162</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>201</v>
+      </c>
+      <c r="N23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>309</v>
+      </c>
+      <c r="R23" t="s">
+        <v>332</v>
+      </c>
+      <c r="S23" t="s">
+        <v>346</v>
+      </c>
+      <c r="T23" t="s">
+        <v>356</v>
+      </c>
+      <c r="U23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2633,52 +2693,40 @@
         <v>74</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>5</v>
       </c>
-      <c r="F24">
-        <v>34</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
       <c r="I24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="N24" t="s">
-        <v>254</v>
+        <v>72</v>
       </c>
       <c r="O24" t="s">
-        <v>283</v>
-      </c>
-      <c r="P24" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>337</v>
-      </c>
-      <c r="R24" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2689,52 +2737,55 @@
         <v>75</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>163</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="O25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P25" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="Q25" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="R25" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="S25" t="s">
-        <v>349</v>
-      </c>
-      <c r="T25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2745,19 +2796,19 @@
         <v>76</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>13</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2765,38 +2816,38 @@
       <c r="J26" t="s">
         <v>133</v>
       </c>
-      <c r="K26" t="s">
-        <v>170</v>
-      </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="N26" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="Q26" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="R26" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="S26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="T26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>343</v>
+      </c>
+      <c r="U26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2807,19 +2858,19 @@
         <v>77</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2828,31 +2879,19 @@
         <v>134</v>
       </c>
       <c r="K27" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="O27" t="s">
-        <v>286</v>
-      </c>
-      <c r="P27" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>332</v>
-      </c>
-      <c r="R27" t="s">
-        <v>346</v>
-      </c>
-      <c r="S27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2863,49 +2902,52 @@
         <v>78</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>5</v>
       </c>
       <c r="F28">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>135</v>
       </c>
       <c r="K28" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="M28" t="s">
+        <v>240</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2916,19 +2958,19 @@
         <v>79</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2937,16 +2979,34 @@
         <v>136</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>165</v>
+      </c>
+      <c r="O29" t="s">
+        <v>287</v>
+      </c>
+      <c r="P29" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>338</v>
+      </c>
+      <c r="R29" t="s">
+        <v>351</v>
+      </c>
+      <c r="S29" t="s">
+        <v>356</v>
+      </c>
+      <c r="T29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2957,19 +3017,19 @@
         <v>80</v>
       </c>
       <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>13</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2978,13 +3038,28 @@
         <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>166</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
       </c>
       <c r="N30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>256</v>
+      </c>
+      <c r="O30" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>339</v>
+      </c>
+      <c r="R30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2995,19 +3070,19 @@
         <v>81</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3015,17 +3090,38 @@
       <c r="J31" t="s">
         <v>138</v>
       </c>
+      <c r="K31" t="s">
+        <v>75</v>
+      </c>
       <c r="L31" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="M31" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="N31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>289</v>
+      </c>
+      <c r="P31" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>315</v>
+      </c>
+      <c r="R31" t="s">
+        <v>336</v>
+      </c>
+      <c r="S31" t="s">
+        <v>349</v>
+      </c>
+      <c r="T31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3036,19 +3132,19 @@
         <v>82</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
       <c r="F32">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3057,34 +3153,34 @@
         <v>139</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N32" t="s">
         <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q32" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="R32" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="S32" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3095,58 +3191,55 @@
         <v>83</v>
       </c>
       <c r="D33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
         <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="N33" t="s">
         <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P33" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q33" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="R33" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="S33" t="s">
-        <v>349</v>
-      </c>
-      <c r="T33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3157,52 +3250,58 @@
         <v>84</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>53</v>
-      </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>141</v>
       </c>
+      <c r="K34" t="s">
+        <v>168</v>
+      </c>
       <c r="L34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="N34" t="s">
         <v>260</v>
       </c>
       <c r="O34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q34" t="s">
+        <v>321</v>
+      </c>
+      <c r="R34" t="s">
         <v>340</v>
       </c>
-      <c r="R34" t="s">
-        <v>352</v>
-      </c>
       <c r="S34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>343</v>
+      </c>
+      <c r="T34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3213,37 +3312,52 @@
         <v>85</v>
       </c>
       <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>45</v>
+      </c>
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>18</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>142</v>
       </c>
+      <c r="K35" t="s">
+        <v>169</v>
+      </c>
       <c r="L35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>293</v>
+      </c>
+      <c r="P35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>341</v>
+      </c>
+      <c r="R35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3254,52 +3368,52 @@
         <v>86</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>143</v>
       </c>
       <c r="K36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s">
-        <v>213</v>
-      </c>
-      <c r="M36" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c r="O36" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="P36" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Q36" t="s">
+        <v>323</v>
+      </c>
+      <c r="R36" t="s">
         <v>341</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3310,52 +3424,55 @@
         <v>87</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
       </c>
       <c r="K37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="M37" t="s">
+        <v>98</v>
       </c>
       <c r="N37" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="O37" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="P37" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="Q37" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="R37" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="S37" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3366,55 +3483,52 @@
         <v>88</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J38" t="s">
         <v>145</v>
       </c>
+      <c r="K38" t="s">
+        <v>172</v>
+      </c>
       <c r="L38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N38" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O38" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P38" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q38" t="s">
         <v>342</v>
       </c>
       <c r="R38" t="s">
-        <v>354</v>
-      </c>
-      <c r="S38" t="s">
-        <v>357</v>
-      </c>
-      <c r="T38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3425,43 +3539,40 @@
         <v>89</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>7</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>146</v>
       </c>
-      <c r="L39" t="s">
-        <v>216</v>
-      </c>
-      <c r="M39" t="s">
-        <v>216</v>
+      <c r="K39" t="s">
+        <v>173</v>
       </c>
       <c r="N39" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="O39" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P39" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="Q39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R39" t="s">
         <v>336</v>
@@ -3470,10 +3581,10 @@
         <v>349</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3484,52 +3595,58 @@
         <v>90</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>147</v>
       </c>
+      <c r="K40" t="s">
+        <v>83</v>
+      </c>
       <c r="L40" t="s">
         <v>217</v>
       </c>
       <c r="M40" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N40" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P40" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q40" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="R40" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>343</v>
+      </c>
+      <c r="T40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3540,52 +3657,52 @@
         <v>91</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
         <v>148</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L41" t="s">
         <v>218</v>
       </c>
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
       <c r="N41" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P41" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="Q41" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="R41" t="s">
-        <v>346</v>
-      </c>
-      <c r="S41" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3596,55 +3713,58 @@
         <v>92</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>4</v>
       </c>
-      <c r="H42">
-        <v>18</v>
-      </c>
       <c r="I42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>149</v>
       </c>
       <c r="K42" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="L42" t="s">
         <v>219</v>
       </c>
-      <c r="M42" t="s">
-        <v>238</v>
-      </c>
       <c r="N42" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="O42" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="Q42" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="R42" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="S42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>336</v>
+      </c>
+      <c r="T42" t="s">
+        <v>349</v>
+      </c>
+      <c r="U42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3655,19 +3775,19 @@
         <v>93</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>7</v>
-      </c>
-      <c r="F43">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -3675,38 +3795,17 @@
       <c r="J43" t="s">
         <v>150</v>
       </c>
-      <c r="K43" t="s">
-        <v>178</v>
-      </c>
       <c r="L43" t="s">
         <v>220</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="N43" t="s">
-        <v>265</v>
-      </c>
-      <c r="O43" t="s">
-        <v>297</v>
-      </c>
-      <c r="P43" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>312</v>
-      </c>
-      <c r="R43" t="s">
-        <v>335</v>
-      </c>
-      <c r="S43" t="s">
-        <v>338</v>
-      </c>
-      <c r="T43" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3717,22 +3816,22 @@
         <v>94</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>151</v>
@@ -3740,23 +3839,8 @@
       <c r="L44" t="s">
         <v>221</v>
       </c>
-      <c r="M44" t="s">
-        <v>239</v>
-      </c>
-      <c r="N44" t="s">
-        <v>266</v>
-      </c>
-      <c r="O44" t="s">
-        <v>298</v>
-      </c>
-      <c r="P44" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3767,58 +3851,34 @@
         <v>95</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>152</v>
       </c>
       <c r="K45" t="s">
-        <v>61</v>
-      </c>
-      <c r="L45" t="s">
-        <v>222</v>
-      </c>
-      <c r="M45" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="N45" t="s">
-        <v>267</v>
-      </c>
-      <c r="O45" t="s">
-        <v>299</v>
-      </c>
-      <c r="P45" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>312</v>
-      </c>
-      <c r="R45" t="s">
-        <v>335</v>
-      </c>
-      <c r="S45" t="s">
-        <v>338</v>
-      </c>
-      <c r="T45" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3829,19 +3889,19 @@
         <v>96</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -3849,17 +3909,35 @@
       <c r="J46" t="s">
         <v>153</v>
       </c>
+      <c r="K46" t="s">
+        <v>175</v>
+      </c>
       <c r="L46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M46" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>266</v>
+      </c>
+      <c r="O46" t="s">
+        <v>299</v>
+      </c>
+      <c r="P46" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>334</v>
+      </c>
+      <c r="R46" t="s">
+        <v>348</v>
+      </c>
+      <c r="S46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3870,52 +3948,58 @@
         <v>97</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>154</v>
       </c>
       <c r="K47" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="L47" t="s">
+        <v>223</v>
+      </c>
+      <c r="M47" t="s">
+        <v>102</v>
       </c>
       <c r="N47" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="O47" t="s">
         <v>300</v>
       </c>
       <c r="P47" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="Q47" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="R47" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="S47" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3926,52 +4010,52 @@
         <v>98</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>6</v>
       </c>
       <c r="F48">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>155</v>
       </c>
+      <c r="K48" t="s">
+        <v>177</v>
+      </c>
       <c r="L48" t="s">
         <v>224</v>
       </c>
-      <c r="M48" t="s">
-        <v>242</v>
-      </c>
       <c r="N48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O48" t="s">
         <v>301</v>
       </c>
       <c r="P48" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q48" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="R48" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="S48" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3982,19 +4066,19 @@
         <v>99</v>
       </c>
       <c r="D49">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4003,37 +4087,31 @@
         <v>156</v>
       </c>
       <c r="K49" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s">
         <v>225</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="P49" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="Q49" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="R49" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="S49" t="s">
-        <v>336</v>
-      </c>
-      <c r="T49" t="s">
-        <v>349</v>
-      </c>
-      <c r="U49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4044,19 +4122,19 @@
         <v>100</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4065,34 +4143,28 @@
         <v>157</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s">
         <v>226</v>
       </c>
       <c r="N50" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="O50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P50" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Q50" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="R50" t="s">
-        <v>340</v>
-      </c>
-      <c r="S50" t="s">
-        <v>352</v>
-      </c>
-      <c r="T50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4103,52 +4175,37 @@
         <v>101</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>158</v>
       </c>
-      <c r="K51" t="s">
-        <v>180</v>
-      </c>
       <c r="L51" t="s">
         <v>227</v>
       </c>
       <c r="M51" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="N51" t="s">
-        <v>270</v>
-      </c>
-      <c r="O51" t="s">
-        <v>303</v>
-      </c>
-      <c r="P51" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>333</v>
-      </c>
-      <c r="R51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4159,32 +4216,32 @@
         <v>102</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E52">
         <v>6</v>
       </c>
       <c r="F52">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H52">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>159</v>
       </c>
+      <c r="K52" t="s">
+        <v>180</v>
+      </c>
       <c r="L52" t="s">
         <v>228</v>
       </c>
-      <c r="M52" t="s">
-        <v>244</v>
-      </c>
       <c r="N52" t="s">
         <v>271</v>
       </c>
@@ -4192,19 +4249,19 @@
         <v>304</v>
       </c>
       <c r="P52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q52" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="R52" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="S52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4215,49 +4272,34 @@
         <v>103</v>
       </c>
       <c r="D53">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>160</v>
       </c>
+      <c r="K53" t="s">
+        <v>101</v>
+      </c>
       <c r="L53" t="s">
         <v>229</v>
       </c>
-      <c r="M53" t="s">
-        <v>245</v>
-      </c>
       <c r="N53" t="s">
-        <v>272</v>
-      </c>
-      <c r="O53" t="s">
-        <v>305</v>
-      </c>
-      <c r="P53" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>315</v>
-      </c>
-      <c r="R53" t="s">
-        <v>337</v>
-      </c>
-      <c r="S53" t="s">
-        <v>347</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
